--- a/_nhandt/Atendance-weekly-Report_DoThanhNhan-Week1.xlsx
+++ b/_nhandt/Atendance-weekly-Report_DoThanhNhan-Week1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490" tabRatio="500"/>
   </bookViews>
@@ -349,7 +344,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d&quot;, &quot;yyyy;@"/>
   </numFmts>
@@ -456,7 +451,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -544,6 +539,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,7 +1046,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1298,12 +1305,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1312,6 +1331,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1337,8 +1359,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1415,24 +1443,10 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
@@ -1694,7 +1708,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1729,7 +1743,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1940,11 +1954,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="121" style="2" customWidth="1"/>
@@ -1965,13 +1979,13 @@
     <col min="67" max="1025" width="7.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="43.5">
-      <c r="A1" s="120" t="s">
+    <row r="1" spans="1:66" ht="45">
+      <c r="A1" s="126" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="120"/>
+      <c r="B1" s="126"/>
     </row>
-    <row r="2" spans="1:66" ht="17.25" thickBot="1"/>
+    <row r="2" spans="1:66" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:66">
       <c r="A3" s="4" t="s">
         <v>0</v>
@@ -2044,7 +2058,7 @@
       <c r="BM3" s="7"/>
       <c r="BN3" s="8"/>
     </row>
-    <row r="4" spans="1:66" ht="17.25" thickBot="1">
+    <row r="4" spans="1:66" ht="15.75" thickBot="1">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
@@ -2117,178 +2131,178 @@
       <c r="BN4" s="15"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A5" s="127" t="s">
+      <c r="A5" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="127" t="s">
+      <c r="D5" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="134" t="s">
+      <c r="E5" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="134"/>
-      <c r="M5" s="134"/>
-      <c r="N5" s="134"/>
-      <c r="O5" s="134"/>
-      <c r="P5" s="134"/>
-      <c r="Q5" s="134"/>
-      <c r="R5" s="134"/>
-      <c r="S5" s="134"/>
-      <c r="T5" s="134"/>
-      <c r="U5" s="134"/>
-      <c r="V5" s="134"/>
-      <c r="W5" s="134"/>
-      <c r="X5" s="134"/>
-      <c r="Y5" s="134"/>
-      <c r="Z5" s="134"/>
-      <c r="AA5" s="134"/>
-      <c r="AB5" s="134"/>
-      <c r="AC5" s="134"/>
-      <c r="AD5" s="134"/>
-      <c r="AE5" s="134"/>
-      <c r="AF5" s="134"/>
-      <c r="AG5" s="134"/>
-      <c r="AH5" s="134"/>
-      <c r="AI5" s="134"/>
-      <c r="AJ5" s="134"/>
-      <c r="AK5" s="134"/>
-      <c r="AL5" s="134"/>
-      <c r="AM5" s="134"/>
-      <c r="AN5" s="134"/>
-      <c r="AO5" s="134"/>
-      <c r="AP5" s="134"/>
-      <c r="AQ5" s="134"/>
-      <c r="AR5" s="134"/>
-      <c r="AS5" s="134"/>
-      <c r="AT5" s="134"/>
-      <c r="AU5" s="134"/>
-      <c r="AV5" s="134"/>
-      <c r="AW5" s="134"/>
-      <c r="AX5" s="134"/>
-      <c r="AY5" s="134"/>
-      <c r="AZ5" s="134"/>
-      <c r="BA5" s="134"/>
-      <c r="BB5" s="134"/>
-      <c r="BC5" s="134"/>
-      <c r="BD5" s="134"/>
-      <c r="BE5" s="134"/>
-      <c r="BF5" s="134"/>
-      <c r="BG5" s="134"/>
-      <c r="BH5" s="134"/>
-      <c r="BI5" s="134"/>
-      <c r="BJ5" s="134"/>
-      <c r="BK5" s="134"/>
-      <c r="BL5" s="134"/>
-      <c r="BM5" s="126" t="s">
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="143"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="143"/>
+      <c r="P5" s="143"/>
+      <c r="Q5" s="143"/>
+      <c r="R5" s="143"/>
+      <c r="S5" s="143"/>
+      <c r="T5" s="143"/>
+      <c r="U5" s="143"/>
+      <c r="V5" s="143"/>
+      <c r="W5" s="143"/>
+      <c r="X5" s="143"/>
+      <c r="Y5" s="143"/>
+      <c r="Z5" s="143"/>
+      <c r="AA5" s="143"/>
+      <c r="AB5" s="143"/>
+      <c r="AC5" s="143"/>
+      <c r="AD5" s="143"/>
+      <c r="AE5" s="143"/>
+      <c r="AF5" s="143"/>
+      <c r="AG5" s="143"/>
+      <c r="AH5" s="143"/>
+      <c r="AI5" s="143"/>
+      <c r="AJ5" s="143"/>
+      <c r="AK5" s="143"/>
+      <c r="AL5" s="143"/>
+      <c r="AM5" s="143"/>
+      <c r="AN5" s="143"/>
+      <c r="AO5" s="143"/>
+      <c r="AP5" s="143"/>
+      <c r="AQ5" s="143"/>
+      <c r="AR5" s="143"/>
+      <c r="AS5" s="143"/>
+      <c r="AT5" s="143"/>
+      <c r="AU5" s="143"/>
+      <c r="AV5" s="143"/>
+      <c r="AW5" s="143"/>
+      <c r="AX5" s="143"/>
+      <c r="AY5" s="143"/>
+      <c r="AZ5" s="143"/>
+      <c r="BA5" s="143"/>
+      <c r="BB5" s="143"/>
+      <c r="BC5" s="143"/>
+      <c r="BD5" s="143"/>
+      <c r="BE5" s="143"/>
+      <c r="BF5" s="143"/>
+      <c r="BG5" s="143"/>
+      <c r="BH5" s="143"/>
+      <c r="BI5" s="143"/>
+      <c r="BJ5" s="143"/>
+      <c r="BK5" s="143"/>
+      <c r="BL5" s="143"/>
+      <c r="BM5" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="BN5" s="127" t="s">
+      <c r="BN5" s="134" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:66" ht="17.25" thickBot="1">
-      <c r="A6" s="128"/>
-      <c r="B6" s="129"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="132" t="s">
+    <row r="6" spans="1:66" ht="15.75" thickBot="1">
+      <c r="A6" s="135"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132" t="s">
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="132"/>
-      <c r="L6" s="132"/>
-      <c r="M6" s="132"/>
-      <c r="N6" s="132"/>
-      <c r="O6" s="132" t="s">
+      <c r="K6" s="141"/>
+      <c r="L6" s="141"/>
+      <c r="M6" s="141"/>
+      <c r="N6" s="141"/>
+      <c r="O6" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="132"/>
-      <c r="Q6" s="132"/>
-      <c r="R6" s="132"/>
-      <c r="S6" s="132"/>
-      <c r="T6" s="132" t="s">
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141"/>
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="U6" s="132"/>
-      <c r="V6" s="132"/>
-      <c r="W6" s="132"/>
-      <c r="X6" s="132"/>
-      <c r="Y6" s="132" t="s">
+      <c r="U6" s="141"/>
+      <c r="V6" s="141"/>
+      <c r="W6" s="141"/>
+      <c r="X6" s="141"/>
+      <c r="Y6" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="Z6" s="132"/>
-      <c r="AA6" s="132"/>
-      <c r="AB6" s="132"/>
-      <c r="AC6" s="132"/>
-      <c r="AD6" s="132" t="s">
+      <c r="Z6" s="141"/>
+      <c r="AA6" s="141"/>
+      <c r="AB6" s="141"/>
+      <c r="AC6" s="141"/>
+      <c r="AD6" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="AE6" s="132"/>
-      <c r="AF6" s="132"/>
-      <c r="AG6" s="132"/>
-      <c r="AH6" s="132"/>
-      <c r="AI6" s="132" t="s">
+      <c r="AE6" s="141"/>
+      <c r="AF6" s="141"/>
+      <c r="AG6" s="141"/>
+      <c r="AH6" s="141"/>
+      <c r="AI6" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="AJ6" s="132"/>
-      <c r="AK6" s="132"/>
-      <c r="AL6" s="132"/>
-      <c r="AM6" s="132"/>
-      <c r="AN6" s="132" t="s">
+      <c r="AJ6" s="141"/>
+      <c r="AK6" s="141"/>
+      <c r="AL6" s="141"/>
+      <c r="AM6" s="141"/>
+      <c r="AN6" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="AO6" s="132"/>
-      <c r="AP6" s="132"/>
-      <c r="AQ6" s="132"/>
-      <c r="AR6" s="132"/>
-      <c r="AS6" s="132" t="s">
+      <c r="AO6" s="141"/>
+      <c r="AP6" s="141"/>
+      <c r="AQ6" s="141"/>
+      <c r="AR6" s="141"/>
+      <c r="AS6" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="AT6" s="132"/>
-      <c r="AU6" s="132"/>
-      <c r="AV6" s="132"/>
-      <c r="AW6" s="132"/>
-      <c r="AX6" s="132" t="s">
+      <c r="AT6" s="141"/>
+      <c r="AU6" s="141"/>
+      <c r="AV6" s="141"/>
+      <c r="AW6" s="141"/>
+      <c r="AX6" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="AY6" s="132"/>
-      <c r="AZ6" s="132"/>
-      <c r="BA6" s="132"/>
-      <c r="BB6" s="132"/>
-      <c r="BC6" s="132" t="s">
+      <c r="AY6" s="141"/>
+      <c r="AZ6" s="141"/>
+      <c r="BA6" s="141"/>
+      <c r="BB6" s="141"/>
+      <c r="BC6" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="BD6" s="132"/>
-      <c r="BE6" s="132"/>
-      <c r="BF6" s="132"/>
-      <c r="BG6" s="132"/>
-      <c r="BH6" s="133" t="s">
+      <c r="BD6" s="141"/>
+      <c r="BE6" s="141"/>
+      <c r="BF6" s="141"/>
+      <c r="BG6" s="141"/>
+      <c r="BH6" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="BI6" s="133"/>
-      <c r="BJ6" s="133"/>
-      <c r="BK6" s="133"/>
-      <c r="BL6" s="133"/>
-      <c r="BM6" s="126"/>
-      <c r="BN6" s="127"/>
+      <c r="BI6" s="142"/>
+      <c r="BJ6" s="142"/>
+      <c r="BK6" s="142"/>
+      <c r="BL6" s="142"/>
+      <c r="BM6" s="133"/>
+      <c r="BN6" s="134"/>
     </row>
     <row r="7" spans="1:66">
       <c r="A7" s="104" t="s">
@@ -2370,13 +2384,13 @@
         <v>92</v>
       </c>
       <c r="C8" s="25"/>
-      <c r="D8" s="157" t="s">
+      <c r="D8" s="118" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="125"/>
       <c r="I8" s="21"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -2444,13 +2458,13 @@
         <v>71</v>
       </c>
       <c r="C9" s="108"/>
-      <c r="D9" s="119" t="s">
+      <c r="D9" s="129" t="s">
         <v>77</v>
       </c>
       <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="167"/>
       <c r="I9" s="21"/>
       <c r="J9" s="20"/>
       <c r="K9"/>
@@ -2511,18 +2525,18 @@
       <c r="BN9" s="22"/>
     </row>
     <row r="10" spans="1:66" ht="16.5" customHeight="1">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="127" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="107" t="s">
         <v>72</v>
       </c>
       <c r="C10" s="108"/>
-      <c r="D10" s="119"/>
+      <c r="D10" s="129"/>
       <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="169"/>
       <c r="I10" s="21"/>
       <c r="J10" s="19"/>
       <c r="K10"/>
@@ -2583,16 +2597,16 @@
       <c r="BN10" s="22"/>
     </row>
     <row r="11" spans="1:66">
-      <c r="A11" s="121"/>
+      <c r="A11" s="127"/>
       <c r="B11" s="107" t="s">
         <v>73</v>
       </c>
       <c r="C11" s="108"/>
-      <c r="D11" s="119"/>
+      <c r="D11" s="129"/>
       <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="169"/>
       <c r="I11" s="21"/>
       <c r="J11" s="19"/>
       <c r="K11" s="114"/>
@@ -2653,16 +2667,16 @@
       <c r="BN11" s="22"/>
     </row>
     <row r="12" spans="1:66">
-      <c r="A12" s="121"/>
+      <c r="A12" s="127"/>
       <c r="B12" s="107" t="s">
         <v>74</v>
       </c>
       <c r="C12" s="108"/>
-      <c r="D12" s="119"/>
+      <c r="D12" s="129"/>
       <c r="E12" s="19"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
+      <c r="G12" s="166"/>
+      <c r="H12" s="166"/>
       <c r="I12" s="21"/>
       <c r="J12" s="19"/>
       <c r="K12" s="114"/>
@@ -2723,16 +2737,16 @@
       <c r="BN12" s="22"/>
     </row>
     <row r="13" spans="1:66" ht="16.5" customHeight="1">
-      <c r="A13" s="121"/>
+      <c r="A13" s="127"/>
       <c r="B13" s="105" t="s">
         <v>75</v>
       </c>
       <c r="C13" s="108"/>
-      <c r="D13" s="119"/>
+      <c r="D13" s="129"/>
       <c r="E13" s="19"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
+      <c r="G13" s="166"/>
+      <c r="H13" s="166"/>
       <c r="I13" s="21"/>
       <c r="J13" s="19"/>
       <c r="K13"/>
@@ -2793,16 +2807,16 @@
       <c r="BN13" s="22"/>
     </row>
     <row r="14" spans="1:66" ht="16.5" customHeight="1">
-      <c r="A14" s="121"/>
+      <c r="A14" s="127"/>
       <c r="B14" s="105" t="s">
         <v>76</v>
       </c>
       <c r="C14" s="108"/>
-      <c r="D14" s="119"/>
+      <c r="D14" s="129"/>
       <c r="E14" s="19"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
+      <c r="G14" s="166"/>
+      <c r="H14" s="166"/>
       <c r="I14" s="21"/>
       <c r="J14" s="19"/>
       <c r="K14"/>
@@ -2863,14 +2877,14 @@
       <c r="BN14" s="22"/>
     </row>
     <row r="15" spans="1:66">
-      <c r="A15" s="162" t="s">
+      <c r="A15" s="138" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="158" t="s">
+      <c r="B15" s="119" t="s">
         <v>79</v>
       </c>
       <c r="C15" s="108"/>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="129" t="s">
         <v>100</v>
       </c>
       <c r="E15" s="19"/>
@@ -2936,12 +2950,12 @@
       <c r="BN15" s="22"/>
     </row>
     <row r="16" spans="1:66">
-      <c r="A16" s="162"/>
-      <c r="B16" s="159" t="s">
+      <c r="A16" s="138"/>
+      <c r="B16" s="120" t="s">
         <v>80</v>
       </c>
       <c r="C16" s="108"/>
-      <c r="D16" s="119"/>
+      <c r="D16" s="129"/>
       <c r="E16" s="19"/>
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
@@ -3006,12 +3020,12 @@
       <c r="BN16" s="22"/>
     </row>
     <row r="17" spans="1:66">
-      <c r="A17" s="162"/>
-      <c r="B17" s="160" t="s">
+      <c r="A17" s="138"/>
+      <c r="B17" s="121" t="s">
         <v>81</v>
       </c>
       <c r="C17" s="108"/>
-      <c r="D17" s="119"/>
+      <c r="D17" s="129"/>
       <c r="E17" s="19"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
@@ -3076,12 +3090,12 @@
       <c r="BN17" s="22"/>
     </row>
     <row r="18" spans="1:66">
-      <c r="A18" s="162"/>
-      <c r="B18" s="158" t="s">
+      <c r="A18" s="138"/>
+      <c r="B18" s="119" t="s">
         <v>82</v>
       </c>
       <c r="C18" s="108"/>
-      <c r="D18" s="119"/>
+      <c r="D18" s="129"/>
       <c r="E18" s="19"/>
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
@@ -3146,12 +3160,12 @@
       <c r="BN18" s="22"/>
     </row>
     <row r="19" spans="1:66">
-      <c r="A19" s="162"/>
-      <c r="B19" s="161" t="s">
+      <c r="A19" s="138"/>
+      <c r="B19" s="122" t="s">
         <v>83</v>
       </c>
       <c r="C19" s="108"/>
-      <c r="D19" s="119"/>
+      <c r="D19" s="129"/>
       <c r="E19" s="19"/>
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
@@ -3216,12 +3230,12 @@
       <c r="BN19" s="22"/>
     </row>
     <row r="20" spans="1:66">
-      <c r="A20" s="162"/>
-      <c r="B20" s="161" t="s">
+      <c r="A20" s="138"/>
+      <c r="B20" s="122" t="s">
         <v>84</v>
       </c>
       <c r="C20" s="108"/>
-      <c r="D20" s="119"/>
+      <c r="D20" s="129"/>
       <c r="E20" s="19"/>
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
@@ -3286,12 +3300,12 @@
       <c r="BN20" s="22"/>
     </row>
     <row r="21" spans="1:66">
-      <c r="A21" s="162"/>
-      <c r="B21" s="161" t="s">
+      <c r="A21" s="138"/>
+      <c r="B21" s="122" t="s">
         <v>85</v>
       </c>
       <c r="C21" s="108"/>
-      <c r="D21" s="119"/>
+      <c r="D21" s="129"/>
       <c r="E21" s="19"/>
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
@@ -3356,12 +3370,12 @@
       <c r="BN21" s="22"/>
     </row>
     <row r="22" spans="1:66">
-      <c r="A22" s="162"/>
-      <c r="B22" s="161" t="s">
+      <c r="A22" s="138"/>
+      <c r="B22" s="122" t="s">
         <v>86</v>
       </c>
       <c r="C22" s="108"/>
-      <c r="D22" s="119"/>
+      <c r="D22" s="129"/>
       <c r="E22" s="19"/>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
@@ -3426,12 +3440,12 @@
       <c r="BN22" s="22"/>
     </row>
     <row r="23" spans="1:66">
-      <c r="A23" s="162"/>
-      <c r="B23" s="161" t="s">
+      <c r="A23" s="138"/>
+      <c r="B23" s="122" t="s">
         <v>87</v>
       </c>
       <c r="C23" s="108"/>
-      <c r="D23" s="119"/>
+      <c r="D23" s="129"/>
       <c r="E23" s="19"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
@@ -3496,12 +3510,12 @@
       <c r="BN23" s="22"/>
     </row>
     <row r="24" spans="1:66">
-      <c r="A24" s="162"/>
-      <c r="B24" s="158" t="s">
+      <c r="A24" s="138"/>
+      <c r="B24" s="119" t="s">
         <v>88</v>
       </c>
       <c r="C24" s="108"/>
-      <c r="D24" s="119"/>
+      <c r="D24" s="129"/>
       <c r="E24" s="19"/>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
@@ -3566,12 +3580,12 @@
       <c r="BN24" s="22"/>
     </row>
     <row r="25" spans="1:66">
-      <c r="A25" s="162"/>
-      <c r="B25" s="160" t="s">
+      <c r="A25" s="138"/>
+      <c r="B25" s="121" t="s">
         <v>89</v>
       </c>
       <c r="C25" s="108"/>
-      <c r="D25" s="119"/>
+      <c r="D25" s="129"/>
       <c r="E25" s="19"/>
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
@@ -3636,12 +3650,12 @@
       <c r="BN25" s="22"/>
     </row>
     <row r="26" spans="1:66">
-      <c r="A26" s="162"/>
-      <c r="B26" s="158" t="s">
+      <c r="A26" s="138"/>
+      <c r="B26" s="119" t="s">
         <v>90</v>
       </c>
       <c r="C26" s="108"/>
-      <c r="D26" s="119"/>
+      <c r="D26" s="129"/>
       <c r="E26" s="19"/>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
@@ -3706,14 +3720,14 @@
       <c r="BN26" s="22"/>
     </row>
     <row r="27" spans="1:66" ht="16.5" customHeight="1">
-      <c r="A27" s="121" t="s">
+      <c r="A27" s="127" t="s">
         <v>93</v>
       </c>
       <c r="B27" s="105" t="s">
         <v>94</v>
       </c>
       <c r="C27" s="108"/>
-      <c r="D27" s="119" t="s">
+      <c r="D27" s="129" t="s">
         <v>101</v>
       </c>
       <c r="E27" s="19"/>
@@ -3780,12 +3794,12 @@
       <c r="BN27" s="22"/>
     </row>
     <row r="28" spans="1:66">
-      <c r="A28" s="121"/>
+      <c r="A28" s="127"/>
       <c r="B28" s="105" t="s">
         <v>95</v>
       </c>
       <c r="C28" s="108"/>
-      <c r="D28" s="119"/>
+      <c r="D28" s="129"/>
       <c r="E28" s="19"/>
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
@@ -3850,12 +3864,12 @@
       <c r="BN28" s="22"/>
     </row>
     <row r="29" spans="1:66">
-      <c r="A29" s="121"/>
+      <c r="A29" s="127"/>
       <c r="B29" s="105" t="s">
         <v>96</v>
       </c>
       <c r="C29" s="108"/>
-      <c r="D29" s="119"/>
+      <c r="D29" s="129"/>
       <c r="E29" s="19"/>
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
@@ -3919,14 +3933,14 @@
       <c r="BN29" s="22"/>
     </row>
     <row r="30" spans="1:66" ht="16.5" customHeight="1">
-      <c r="A30" s="121" t="s">
+      <c r="A30" s="127" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="122" t="s">
+      <c r="B30" s="128" t="s">
         <v>98</v>
       </c>
       <c r="C30" s="109"/>
-      <c r="D30" s="119" t="s">
+      <c r="D30" s="129" t="s">
         <v>102</v>
       </c>
       <c r="E30" s="19"/>
@@ -3993,10 +4007,10 @@
       <c r="BN30" s="22"/>
     </row>
     <row r="31" spans="1:66">
-      <c r="A31" s="121"/>
-      <c r="B31" s="122"/>
+      <c r="A31" s="127"/>
+      <c r="B31" s="128"/>
       <c r="C31" s="106"/>
-      <c r="D31" s="119"/>
+      <c r="D31" s="129"/>
       <c r="E31" s="19"/>
       <c r="F31" s="20"/>
       <c r="G31" s="20"/>
@@ -4061,10 +4075,10 @@
       <c r="BN31" s="22"/>
     </row>
     <row r="32" spans="1:66">
-      <c r="A32" s="121"/>
-      <c r="B32" s="122"/>
+      <c r="A32" s="127"/>
+      <c r="B32" s="128"/>
       <c r="C32" s="106"/>
-      <c r="D32" s="119"/>
+      <c r="D32" s="129"/>
       <c r="E32" s="19"/>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
@@ -4129,10 +4143,10 @@
       <c r="BN32" s="22"/>
     </row>
     <row r="33" spans="1:66" ht="18" customHeight="1">
-      <c r="A33" s="121"/>
-      <c r="B33" s="122"/>
+      <c r="A33" s="127"/>
+      <c r="B33" s="128"/>
       <c r="C33" s="106"/>
-      <c r="D33" s="119"/>
+      <c r="D33" s="129"/>
       <c r="E33" s="19"/>
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
@@ -4197,10 +4211,10 @@
       <c r="BN33" s="22"/>
     </row>
     <row r="34" spans="1:66">
-      <c r="A34" s="121"/>
-      <c r="B34" s="122"/>
+      <c r="A34" s="127"/>
+      <c r="B34" s="128"/>
       <c r="C34" s="106"/>
-      <c r="D34" s="119"/>
+      <c r="D34" s="129"/>
       <c r="E34" s="19"/>
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
@@ -4265,10 +4279,10 @@
       <c r="BN34" s="22"/>
     </row>
     <row r="35" spans="1:66">
-      <c r="A35" s="121"/>
-      <c r="B35" s="122"/>
+      <c r="A35" s="127"/>
+      <c r="B35" s="128"/>
       <c r="C35" s="106"/>
-      <c r="D35" s="119"/>
+      <c r="D35" s="129"/>
       <c r="E35" s="19"/>
       <c r="F35" s="20"/>
       <c r="G35" s="20"/>
@@ -4333,10 +4347,10 @@
       <c r="BN35" s="22"/>
     </row>
     <row r="36" spans="1:66">
-      <c r="A36" s="121"/>
-      <c r="B36" s="122"/>
+      <c r="A36" s="127"/>
+      <c r="B36" s="128"/>
       <c r="C36" s="28"/>
-      <c r="D36" s="119"/>
+      <c r="D36" s="129"/>
       <c r="E36" s="19"/>
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
@@ -4401,10 +4415,10 @@
       <c r="BN36" s="22"/>
     </row>
     <row r="37" spans="1:66">
-      <c r="A37" s="121"/>
-      <c r="B37" s="122"/>
+      <c r="A37" s="127"/>
+      <c r="B37" s="128"/>
       <c r="C37" s="28"/>
-      <c r="D37" s="119"/>
+      <c r="D37" s="129"/>
       <c r="E37" s="19"/>
       <c r="F37" s="20"/>
       <c r="G37" s="20"/>
@@ -4469,10 +4483,10 @@
       <c r="BN37" s="22"/>
     </row>
     <row r="38" spans="1:66">
-      <c r="A38" s="121"/>
-      <c r="B38" s="122"/>
+      <c r="A38" s="127"/>
+      <c r="B38" s="128"/>
       <c r="C38" s="28"/>
-      <c r="D38" s="119"/>
+      <c r="D38" s="129"/>
       <c r="E38" s="19"/>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
@@ -4537,10 +4551,10 @@
       <c r="BN38" s="22"/>
     </row>
     <row r="39" spans="1:66">
-      <c r="A39" s="121"/>
-      <c r="B39" s="122"/>
+      <c r="A39" s="127"/>
+      <c r="B39" s="128"/>
       <c r="C39" s="28"/>
-      <c r="D39" s="119"/>
+      <c r="D39" s="129"/>
       <c r="E39" s="19"/>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
@@ -4605,14 +4619,14 @@
       <c r="BN39" s="22"/>
     </row>
     <row r="40" spans="1:66" ht="16.5" customHeight="1">
-      <c r="A40" s="121" t="s">
+      <c r="A40" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="131" t="s">
+      <c r="B40" s="139" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="118"/>
-      <c r="D40" s="119" t="s">
+      <c r="C40" s="140"/>
+      <c r="D40" s="129" t="s">
         <v>91</v>
       </c>
       <c r="E40" s="19"/>
@@ -4679,10 +4693,10 @@
       <c r="BN40" s="22"/>
     </row>
     <row r="41" spans="1:66">
-      <c r="A41" s="121"/>
-      <c r="B41" s="131"/>
-      <c r="C41" s="118"/>
-      <c r="D41" s="119"/>
+      <c r="A41" s="127"/>
+      <c r="B41" s="139"/>
+      <c r="C41" s="140"/>
+      <c r="D41" s="129"/>
       <c r="E41" s="19"/>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
@@ -5965,7 +5979,7 @@
       <c r="BN59" s="22"/>
       <c r="BO59" s="20"/>
     </row>
-    <row r="60" spans="1:67" ht="17.25" thickBot="1">
+    <row r="60" spans="1:67" ht="15.75" thickBot="1">
       <c r="A60" s="104"/>
       <c r="B60" s="24"/>
       <c r="C60" s="17"/>
@@ -6033,8 +6047,8 @@
       <c r="BM60" s="32"/>
       <c r="BN60" s="32"/>
     </row>
-    <row r="61" spans="1:67" ht="17.25" thickBot="1">
-      <c r="A61" s="123" t="s">
+    <row r="61" spans="1:67" ht="15.75" thickBot="1">
+      <c r="A61" s="130" t="s">
         <v>24</v>
       </c>
       <c r="B61" s="33"/>
@@ -6103,8 +6117,8 @@
       <c r="BM61" s="22"/>
       <c r="BN61" s="22"/>
     </row>
-    <row r="62" spans="1:67" ht="17.25" thickBot="1">
-      <c r="A62" s="124"/>
+    <row r="62" spans="1:67" ht="15.75" thickBot="1">
+      <c r="A62" s="131"/>
       <c r="B62" s="24"/>
       <c r="C62" s="39"/>
       <c r="D62" s="26"/>
@@ -6172,7 +6186,7 @@
       <c r="BN62" s="32"/>
     </row>
     <row r="63" spans="1:67" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A63" s="125" t="s">
+      <c r="A63" s="132" t="s">
         <v>25</v>
       </c>
       <c r="B63" s="33"/>
@@ -6241,8 +6255,8 @@
       <c r="BM63" s="22"/>
       <c r="BN63" s="22"/>
     </row>
-    <row r="64" spans="1:67" ht="17.25" thickBot="1">
-      <c r="A64" s="125"/>
+    <row r="64" spans="1:67" ht="15.75" thickBot="1">
+      <c r="A64" s="132"/>
       <c r="B64" s="40"/>
       <c r="C64" s="25"/>
       <c r="D64" s="26"/>
@@ -6309,8 +6323,8 @@
       <c r="BM64" s="22"/>
       <c r="BN64" s="22"/>
     </row>
-    <row r="65" spans="1:66" ht="17.25" thickBot="1">
-      <c r="A65" s="125"/>
+    <row r="65" spans="1:66" ht="15.75" thickBot="1">
+      <c r="A65" s="132"/>
       <c r="B65" s="40"/>
       <c r="C65" s="41"/>
       <c r="D65" s="26"/>
@@ -6445,7 +6459,7 @@
       <c r="BM66" s="54"/>
       <c r="BN66" s="54"/>
     </row>
-    <row r="67" spans="1:66" ht="17.25" thickBot="1">
+    <row r="67" spans="1:66" ht="15.75" thickBot="1">
       <c r="A67" s="29"/>
       <c r="B67" s="55"/>
       <c r="C67" s="55"/>
@@ -6513,7 +6527,7 @@
       <c r="BM67" s="54"/>
       <c r="BN67" s="53"/>
     </row>
-    <row r="68" spans="1:66" ht="17.25" thickBot="1">
+    <row r="68" spans="1:66" ht="15.75" thickBot="1">
       <c r="E68" s="60" t="s">
         <v>26</v>
       </c>
@@ -6718,27 +6732,27 @@
       <c r="H1" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="154" t="s">
+      <c r="I1" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
       <c r="N1" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="155" t="s">
+      <c r="O1" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="155"/>
-      <c r="Q1" s="155"/>
-      <c r="R1" s="155"/>
-      <c r="S1" s="155"/>
-      <c r="T1" s="155"/>
-      <c r="U1" s="155"/>
-      <c r="V1" s="155"/>
-      <c r="W1" s="155"/>
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="164"/>
+      <c r="S1" s="164"/>
+      <c r="T1" s="164"/>
+      <c r="U1" s="164"/>
+      <c r="V1" s="164"/>
+      <c r="W1" s="164"/>
       <c r="X1" s="78"/>
       <c r="Y1" s="78"/>
       <c r="Z1" s="78"/>
@@ -6841,419 +6855,419 @@
       <c r="DS1" s="79"/>
     </row>
     <row r="2" spans="1:222">
-      <c r="H2" s="146" t="s">
+      <c r="H2" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="148" t="s">
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="148"/>
-      <c r="P2" s="148"/>
-      <c r="Q2" s="148"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="148"/>
-      <c r="U2" s="148"/>
-      <c r="V2" s="148"/>
-      <c r="W2" s="148"/>
-      <c r="X2" s="156" t="s">
+      <c r="O2" s="157"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="157"/>
+      <c r="U2" s="157"/>
+      <c r="V2" s="157"/>
+      <c r="W2" s="157"/>
+      <c r="X2" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" s="156"/>
-      <c r="Z2" s="156"/>
-      <c r="AA2" s="156"/>
-      <c r="AB2" s="156"/>
-      <c r="AC2" s="156"/>
-      <c r="AD2" s="156"/>
-      <c r="AE2" s="156"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="156"/>
-      <c r="AH2" s="148" t="s">
+      <c r="Y2" s="165"/>
+      <c r="Z2" s="165"/>
+      <c r="AA2" s="165"/>
+      <c r="AB2" s="165"/>
+      <c r="AC2" s="165"/>
+      <c r="AD2" s="165"/>
+      <c r="AE2" s="165"/>
+      <c r="AF2" s="165"/>
+      <c r="AG2" s="165"/>
+      <c r="AH2" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="AI2" s="148"/>
-      <c r="AJ2" s="148"/>
-      <c r="AK2" s="148"/>
-      <c r="AL2" s="148"/>
-      <c r="AM2" s="148"/>
-      <c r="AN2" s="148"/>
-      <c r="AO2" s="148"/>
-      <c r="AP2" s="148"/>
-      <c r="AQ2" s="148"/>
-      <c r="AR2" s="147" t="s">
+      <c r="AI2" s="157"/>
+      <c r="AJ2" s="157"/>
+      <c r="AK2" s="157"/>
+      <c r="AL2" s="157"/>
+      <c r="AM2" s="157"/>
+      <c r="AN2" s="157"/>
+      <c r="AO2" s="157"/>
+      <c r="AP2" s="157"/>
+      <c r="AQ2" s="157"/>
+      <c r="AR2" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="AS2" s="147"/>
-      <c r="AT2" s="147"/>
-      <c r="AU2" s="147"/>
-      <c r="AV2" s="147"/>
-      <c r="AW2" s="147"/>
-      <c r="AX2" s="147"/>
-      <c r="AY2" s="147"/>
-      <c r="AZ2" s="147"/>
-      <c r="BA2" s="147"/>
-      <c r="BB2" s="148" t="s">
+      <c r="AS2" s="156"/>
+      <c r="AT2" s="156"/>
+      <c r="AU2" s="156"/>
+      <c r="AV2" s="156"/>
+      <c r="AW2" s="156"/>
+      <c r="AX2" s="156"/>
+      <c r="AY2" s="156"/>
+      <c r="AZ2" s="156"/>
+      <c r="BA2" s="156"/>
+      <c r="BB2" s="157" t="s">
         <v>39</v>
       </c>
-      <c r="BC2" s="148"/>
-      <c r="BD2" s="148"/>
-      <c r="BE2" s="148"/>
-      <c r="BF2" s="148"/>
-      <c r="BG2" s="148"/>
-      <c r="BH2" s="148"/>
-      <c r="BI2" s="148"/>
-      <c r="BJ2" s="148"/>
-      <c r="BK2" s="148"/>
-      <c r="BL2" s="147" t="s">
+      <c r="BC2" s="157"/>
+      <c r="BD2" s="157"/>
+      <c r="BE2" s="157"/>
+      <c r="BF2" s="157"/>
+      <c r="BG2" s="157"/>
+      <c r="BH2" s="157"/>
+      <c r="BI2" s="157"/>
+      <c r="BJ2" s="157"/>
+      <c r="BK2" s="157"/>
+      <c r="BL2" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="BM2" s="147"/>
-      <c r="BN2" s="147"/>
-      <c r="BO2" s="147"/>
-      <c r="BP2" s="147"/>
-      <c r="BQ2" s="147"/>
-      <c r="BR2" s="147"/>
-      <c r="BS2" s="147"/>
-      <c r="BT2" s="147"/>
-      <c r="BU2" s="147"/>
-      <c r="BV2" s="148" t="s">
+      <c r="BM2" s="156"/>
+      <c r="BN2" s="156"/>
+      <c r="BO2" s="156"/>
+      <c r="BP2" s="156"/>
+      <c r="BQ2" s="156"/>
+      <c r="BR2" s="156"/>
+      <c r="BS2" s="156"/>
+      <c r="BT2" s="156"/>
+      <c r="BU2" s="156"/>
+      <c r="BV2" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="BW2" s="148"/>
-      <c r="BX2" s="148"/>
-      <c r="BY2" s="148"/>
-      <c r="BZ2" s="148"/>
-      <c r="CA2" s="148"/>
-      <c r="CB2" s="148"/>
-      <c r="CC2" s="148"/>
-      <c r="CD2" s="148"/>
-      <c r="CE2" s="148"/>
-      <c r="CF2" s="147" t="s">
+      <c r="BW2" s="157"/>
+      <c r="BX2" s="157"/>
+      <c r="BY2" s="157"/>
+      <c r="BZ2" s="157"/>
+      <c r="CA2" s="157"/>
+      <c r="CB2" s="157"/>
+      <c r="CC2" s="157"/>
+      <c r="CD2" s="157"/>
+      <c r="CE2" s="157"/>
+      <c r="CF2" s="156" t="s">
         <v>42</v>
       </c>
-      <c r="CG2" s="147"/>
-      <c r="CH2" s="147"/>
-      <c r="CI2" s="147"/>
-      <c r="CJ2" s="147"/>
-      <c r="CK2" s="147"/>
-      <c r="CL2" s="147"/>
-      <c r="CM2" s="147"/>
-      <c r="CN2" s="147"/>
-      <c r="CO2" s="147"/>
-      <c r="CP2" s="148" t="s">
+      <c r="CG2" s="156"/>
+      <c r="CH2" s="156"/>
+      <c r="CI2" s="156"/>
+      <c r="CJ2" s="156"/>
+      <c r="CK2" s="156"/>
+      <c r="CL2" s="156"/>
+      <c r="CM2" s="156"/>
+      <c r="CN2" s="156"/>
+      <c r="CO2" s="156"/>
+      <c r="CP2" s="157" t="s">
         <v>43</v>
       </c>
-      <c r="CQ2" s="148"/>
-      <c r="CR2" s="148"/>
-      <c r="CS2" s="148"/>
-      <c r="CT2" s="148"/>
-      <c r="CU2" s="148"/>
-      <c r="CV2" s="148"/>
-      <c r="CW2" s="148"/>
-      <c r="CX2" s="148"/>
-      <c r="CY2" s="148"/>
-      <c r="CZ2" s="149" t="s">
+      <c r="CQ2" s="157"/>
+      <c r="CR2" s="157"/>
+      <c r="CS2" s="157"/>
+      <c r="CT2" s="157"/>
+      <c r="CU2" s="157"/>
+      <c r="CV2" s="157"/>
+      <c r="CW2" s="157"/>
+      <c r="CX2" s="157"/>
+      <c r="CY2" s="157"/>
+      <c r="CZ2" s="158" t="s">
         <v>44</v>
       </c>
-      <c r="DA2" s="149"/>
-      <c r="DB2" s="149"/>
-      <c r="DC2" s="149"/>
-      <c r="DD2" s="149"/>
-      <c r="DE2" s="149"/>
-      <c r="DF2" s="149"/>
-      <c r="DG2" s="149"/>
-      <c r="DH2" s="149"/>
-      <c r="DI2" s="149"/>
-      <c r="DJ2" s="150" t="s">
+      <c r="DA2" s="158"/>
+      <c r="DB2" s="158"/>
+      <c r="DC2" s="158"/>
+      <c r="DD2" s="158"/>
+      <c r="DE2" s="158"/>
+      <c r="DF2" s="158"/>
+      <c r="DG2" s="158"/>
+      <c r="DH2" s="158"/>
+      <c r="DI2" s="158"/>
+      <c r="DJ2" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="DK2" s="150"/>
-      <c r="DL2" s="150"/>
-      <c r="DM2" s="150"/>
-      <c r="DN2" s="150"/>
-      <c r="DO2" s="150"/>
-      <c r="DP2" s="150"/>
-      <c r="DQ2" s="150"/>
-      <c r="DR2" s="150"/>
-      <c r="DS2" s="150"/>
+      <c r="DK2" s="159"/>
+      <c r="DL2" s="159"/>
+      <c r="DM2" s="159"/>
+      <c r="DN2" s="159"/>
+      <c r="DO2" s="159"/>
+      <c r="DP2" s="159"/>
+      <c r="DQ2" s="159"/>
+      <c r="DR2" s="159"/>
+      <c r="DS2" s="159"/>
     </row>
     <row r="3" spans="1:222" ht="15" customHeight="1">
-      <c r="A3" s="151" t="s">
+      <c r="A3" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="160" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="152" t="s">
+      <c r="C3" s="161" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="151" t="s">
+      <c r="D3" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="153" t="s">
+      <c r="E3" s="162" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="153" t="s">
+      <c r="F3" s="162" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="151" t="s">
+      <c r="G3" s="160" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="139" t="s">
+      <c r="H3" s="148" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139" t="s">
+      <c r="I3" s="148"/>
+      <c r="J3" s="148" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="139"/>
-      <c r="L3" s="146" t="s">
+      <c r="K3" s="148"/>
+      <c r="L3" s="155" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="146"/>
-      <c r="N3" s="145" t="s">
+      <c r="M3" s="155"/>
+      <c r="N3" s="154" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="145"/>
-      <c r="P3" s="135" t="s">
+      <c r="O3" s="154"/>
+      <c r="P3" s="144" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" s="135"/>
-      <c r="R3" s="135" t="s">
+      <c r="Q3" s="144"/>
+      <c r="R3" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="S3" s="135"/>
-      <c r="T3" s="135" t="s">
+      <c r="S3" s="144"/>
+      <c r="T3" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="135"/>
-      <c r="V3" s="136" t="s">
+      <c r="U3" s="144"/>
+      <c r="V3" s="145" t="s">
         <v>55</v>
       </c>
-      <c r="W3" s="136"/>
-      <c r="X3" s="143" t="s">
+      <c r="W3" s="145"/>
+      <c r="X3" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="Y3" s="143"/>
-      <c r="Z3" s="139" t="s">
+      <c r="Y3" s="152"/>
+      <c r="Z3" s="148" t="s">
         <v>57</v>
       </c>
-      <c r="AA3" s="139"/>
-      <c r="AB3" s="139" t="s">
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="148" t="s">
         <v>53</v>
       </c>
-      <c r="AC3" s="139"/>
-      <c r="AD3" s="139" t="s">
+      <c r="AC3" s="148"/>
+      <c r="AD3" s="148" t="s">
         <v>54</v>
       </c>
-      <c r="AE3" s="139"/>
-      <c r="AF3" s="146" t="s">
+      <c r="AE3" s="148"/>
+      <c r="AF3" s="155" t="s">
         <v>55</v>
       </c>
-      <c r="AG3" s="146"/>
-      <c r="AH3" s="145" t="s">
+      <c r="AG3" s="155"/>
+      <c r="AH3" s="154" t="s">
         <v>56</v>
       </c>
-      <c r="AI3" s="145"/>
-      <c r="AJ3" s="135" t="s">
+      <c r="AI3" s="154"/>
+      <c r="AJ3" s="144" t="s">
         <v>57</v>
       </c>
-      <c r="AK3" s="135"/>
-      <c r="AL3" s="135" t="s">
+      <c r="AK3" s="144"/>
+      <c r="AL3" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="AM3" s="135"/>
-      <c r="AN3" s="135" t="s">
+      <c r="AM3" s="144"/>
+      <c r="AN3" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="AO3" s="135"/>
-      <c r="AP3" s="136" t="s">
+      <c r="AO3" s="144"/>
+      <c r="AP3" s="145" t="s">
         <v>55</v>
       </c>
-      <c r="AQ3" s="136"/>
-      <c r="AR3" s="143" t="s">
+      <c r="AQ3" s="145"/>
+      <c r="AR3" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="AS3" s="143"/>
-      <c r="AT3" s="139" t="s">
+      <c r="AS3" s="152"/>
+      <c r="AT3" s="148" t="s">
         <v>57</v>
       </c>
-      <c r="AU3" s="139"/>
-      <c r="AV3" s="139" t="s">
+      <c r="AU3" s="148"/>
+      <c r="AV3" s="148" t="s">
         <v>53</v>
       </c>
-      <c r="AW3" s="139"/>
-      <c r="AX3" s="139" t="s">
+      <c r="AW3" s="148"/>
+      <c r="AX3" s="148" t="s">
         <v>54</v>
       </c>
-      <c r="AY3" s="139"/>
-      <c r="AZ3" s="146" t="s">
+      <c r="AY3" s="148"/>
+      <c r="AZ3" s="155" t="s">
         <v>55</v>
       </c>
-      <c r="BA3" s="146"/>
-      <c r="BB3" s="145" t="s">
+      <c r="BA3" s="155"/>
+      <c r="BB3" s="154" t="s">
         <v>56</v>
       </c>
-      <c r="BC3" s="145"/>
-      <c r="BD3" s="135" t="s">
+      <c r="BC3" s="154"/>
+      <c r="BD3" s="144" t="s">
         <v>57</v>
       </c>
-      <c r="BE3" s="135"/>
-      <c r="BF3" s="135" t="s">
+      <c r="BE3" s="144"/>
+      <c r="BF3" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="BG3" s="135"/>
-      <c r="BH3" s="135" t="s">
+      <c r="BG3" s="144"/>
+      <c r="BH3" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="BI3" s="135"/>
-      <c r="BJ3" s="136" t="s">
+      <c r="BI3" s="144"/>
+      <c r="BJ3" s="145" t="s">
         <v>55</v>
       </c>
-      <c r="BK3" s="136"/>
-      <c r="BL3" s="143" t="s">
+      <c r="BK3" s="145"/>
+      <c r="BL3" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="BM3" s="143"/>
-      <c r="BN3" s="139" t="s">
+      <c r="BM3" s="152"/>
+      <c r="BN3" s="148" t="s">
         <v>57</v>
       </c>
-      <c r="BO3" s="139"/>
-      <c r="BP3" s="139" t="s">
+      <c r="BO3" s="148"/>
+      <c r="BP3" s="148" t="s">
         <v>53</v>
       </c>
-      <c r="BQ3" s="139"/>
-      <c r="BR3" s="139" t="s">
+      <c r="BQ3" s="148"/>
+      <c r="BR3" s="148" t="s">
         <v>54</v>
       </c>
-      <c r="BS3" s="139"/>
-      <c r="BT3" s="146" t="s">
+      <c r="BS3" s="148"/>
+      <c r="BT3" s="155" t="s">
         <v>55</v>
       </c>
-      <c r="BU3" s="146"/>
-      <c r="BV3" s="145" t="s">
+      <c r="BU3" s="155"/>
+      <c r="BV3" s="154" t="s">
         <v>56</v>
       </c>
-      <c r="BW3" s="145"/>
-      <c r="BX3" s="135" t="s">
+      <c r="BW3" s="154"/>
+      <c r="BX3" s="144" t="s">
         <v>57</v>
       </c>
-      <c r="BY3" s="135"/>
-      <c r="BZ3" s="135" t="s">
+      <c r="BY3" s="144"/>
+      <c r="BZ3" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="CA3" s="135"/>
-      <c r="CB3" s="135" t="s">
+      <c r="CA3" s="144"/>
+      <c r="CB3" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="CC3" s="135"/>
-      <c r="CD3" s="136" t="s">
+      <c r="CC3" s="144"/>
+      <c r="CD3" s="145" t="s">
         <v>55</v>
       </c>
-      <c r="CE3" s="136"/>
-      <c r="CF3" s="143" t="s">
+      <c r="CE3" s="145"/>
+      <c r="CF3" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="CG3" s="143"/>
-      <c r="CH3" s="139" t="s">
+      <c r="CG3" s="152"/>
+      <c r="CH3" s="148" t="s">
         <v>57</v>
       </c>
-      <c r="CI3" s="139"/>
-      <c r="CJ3" s="139" t="s">
+      <c r="CI3" s="148"/>
+      <c r="CJ3" s="148" t="s">
         <v>53</v>
       </c>
-      <c r="CK3" s="139"/>
-      <c r="CL3" s="139" t="s">
+      <c r="CK3" s="148"/>
+      <c r="CL3" s="148" t="s">
         <v>54</v>
       </c>
-      <c r="CM3" s="139"/>
-      <c r="CN3" s="144" t="s">
+      <c r="CM3" s="148"/>
+      <c r="CN3" s="153" t="s">
         <v>55</v>
       </c>
-      <c r="CO3" s="144"/>
-      <c r="CP3" s="145" t="s">
+      <c r="CO3" s="153"/>
+      <c r="CP3" s="154" t="s">
         <v>56</v>
       </c>
-      <c r="CQ3" s="145"/>
-      <c r="CR3" s="135" t="s">
+      <c r="CQ3" s="154"/>
+      <c r="CR3" s="144" t="s">
         <v>57</v>
       </c>
-      <c r="CS3" s="135"/>
-      <c r="CT3" s="135" t="s">
+      <c r="CS3" s="144"/>
+      <c r="CT3" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="CU3" s="135"/>
-      <c r="CV3" s="135" t="s">
+      <c r="CU3" s="144"/>
+      <c r="CV3" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="CW3" s="135"/>
-      <c r="CX3" s="142" t="s">
+      <c r="CW3" s="144"/>
+      <c r="CX3" s="151" t="s">
         <v>58</v>
       </c>
-      <c r="CY3" s="142"/>
-      <c r="CZ3" s="143" t="s">
+      <c r="CY3" s="151"/>
+      <c r="CZ3" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="DA3" s="143"/>
-      <c r="DB3" s="139" t="s">
+      <c r="DA3" s="152"/>
+      <c r="DB3" s="148" t="s">
         <v>57</v>
       </c>
-      <c r="DC3" s="139"/>
-      <c r="DD3" s="139" t="s">
+      <c r="DC3" s="148"/>
+      <c r="DD3" s="148" t="s">
         <v>53</v>
       </c>
-      <c r="DE3" s="139"/>
-      <c r="DF3" s="139" t="s">
+      <c r="DE3" s="148"/>
+      <c r="DF3" s="148" t="s">
         <v>54</v>
       </c>
-      <c r="DG3" s="139"/>
-      <c r="DH3" s="140" t="s">
+      <c r="DG3" s="148"/>
+      <c r="DH3" s="149" t="s">
         <v>55</v>
       </c>
-      <c r="DI3" s="140"/>
-      <c r="DJ3" s="141" t="s">
+      <c r="DI3" s="149"/>
+      <c r="DJ3" s="150" t="s">
         <v>56</v>
       </c>
-      <c r="DK3" s="141"/>
-      <c r="DL3" s="135" t="s">
+      <c r="DK3" s="150"/>
+      <c r="DL3" s="144" t="s">
         <v>57</v>
       </c>
-      <c r="DM3" s="135"/>
-      <c r="DN3" s="135" t="s">
+      <c r="DM3" s="144"/>
+      <c r="DN3" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="DO3" s="135"/>
-      <c r="DP3" s="135" t="s">
+      <c r="DO3" s="144"/>
+      <c r="DP3" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="DQ3" s="135"/>
-      <c r="DR3" s="136" t="s">
+      <c r="DQ3" s="144"/>
+      <c r="DR3" s="145" t="s">
         <v>55</v>
       </c>
-      <c r="DS3" s="136"/>
-      <c r="DT3" s="137" t="s">
+      <c r="DS3" s="145"/>
+      <c r="DT3" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="DU3" s="137"/>
-      <c r="DV3" s="137"/>
-      <c r="DW3" s="137"/>
+      <c r="DU3" s="146"/>
+      <c r="DV3" s="146"/>
+      <c r="DW3" s="146"/>
       <c r="DX3" s="80" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:222">
-      <c r="A4" s="151"/>
-      <c r="B4" s="151"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="151"/>
+      <c r="A4" s="160"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="162"/>
+      <c r="G4" s="160"/>
       <c r="H4" s="81" t="s">
         <v>61</v>
       </c>
@@ -7524,10 +7538,10 @@
       <c r="CS4" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="CT4" s="138" t="s">
+      <c r="CT4" s="147" t="s">
         <v>61</v>
       </c>
-      <c r="CU4" s="138" t="s">
+      <c r="CU4" s="147" t="s">
         <v>62</v>
       </c>
       <c r="CV4" s="84" t="s">

--- a/_nhandt/Atendance-weekly-Report_DoThanhNhan-Week1.xlsx
+++ b/_nhandt/Atendance-weekly-Report_DoThanhNhan-Week1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\_report\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490" tabRatio="500"/>
   </bookViews>
@@ -344,7 +349,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d&quot;, &quot;yyyy;@"/>
   </numFmts>
@@ -451,7 +456,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -545,12 +550,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,7 +1045,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1322,18 +1321,20 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1347,9 +1348,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1359,8 +1357,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1368,55 +1372,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1434,19 +1411,39 @@
     <xf numFmtId="0" fontId="8" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
@@ -1708,7 +1705,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1743,7 +1740,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1954,11 +1951,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="121" style="2" customWidth="1"/>
@@ -1979,13 +1976,13 @@
     <col min="67" max="1025" width="7.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="45">
-      <c r="A1" s="126" t="s">
+    <row r="1" spans="1:66" ht="43.5">
+      <c r="A1" s="144" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="126"/>
+      <c r="B1" s="144"/>
     </row>
-    <row r="2" spans="1:66" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:66" ht="17.25" thickBot="1"/>
     <row r="3" spans="1:66">
       <c r="A3" s="4" t="s">
         <v>0</v>
@@ -2058,7 +2055,7 @@
       <c r="BM3" s="7"/>
       <c r="BN3" s="8"/>
     </row>
-    <row r="4" spans="1:66" ht="15.75" thickBot="1">
+    <row r="4" spans="1:66" ht="17.25" thickBot="1">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
@@ -2131,178 +2128,178 @@
       <c r="BN4" s="15"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="136" t="s">
+      <c r="B5" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="137" t="s">
+      <c r="C5" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="134" t="s">
+      <c r="D5" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="143" t="s">
+      <c r="E5" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="143"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="143"/>
-      <c r="M5" s="143"/>
-      <c r="N5" s="143"/>
-      <c r="O5" s="143"/>
-      <c r="P5" s="143"/>
-      <c r="Q5" s="143"/>
-      <c r="R5" s="143"/>
-      <c r="S5" s="143"/>
-      <c r="T5" s="143"/>
-      <c r="U5" s="143"/>
-      <c r="V5" s="143"/>
-      <c r="W5" s="143"/>
-      <c r="X5" s="143"/>
-      <c r="Y5" s="143"/>
-      <c r="Z5" s="143"/>
-      <c r="AA5" s="143"/>
-      <c r="AB5" s="143"/>
-      <c r="AC5" s="143"/>
-      <c r="AD5" s="143"/>
-      <c r="AE5" s="143"/>
-      <c r="AF5" s="143"/>
-      <c r="AG5" s="143"/>
-      <c r="AH5" s="143"/>
-      <c r="AI5" s="143"/>
-      <c r="AJ5" s="143"/>
-      <c r="AK5" s="143"/>
-      <c r="AL5" s="143"/>
-      <c r="AM5" s="143"/>
-      <c r="AN5" s="143"/>
-      <c r="AO5" s="143"/>
-      <c r="AP5" s="143"/>
-      <c r="AQ5" s="143"/>
-      <c r="AR5" s="143"/>
-      <c r="AS5" s="143"/>
-      <c r="AT5" s="143"/>
-      <c r="AU5" s="143"/>
-      <c r="AV5" s="143"/>
-      <c r="AW5" s="143"/>
-      <c r="AX5" s="143"/>
-      <c r="AY5" s="143"/>
-      <c r="AZ5" s="143"/>
-      <c r="BA5" s="143"/>
-      <c r="BB5" s="143"/>
-      <c r="BC5" s="143"/>
-      <c r="BD5" s="143"/>
-      <c r="BE5" s="143"/>
-      <c r="BF5" s="143"/>
-      <c r="BG5" s="143"/>
-      <c r="BH5" s="143"/>
-      <c r="BI5" s="143"/>
-      <c r="BJ5" s="143"/>
-      <c r="BK5" s="143"/>
-      <c r="BL5" s="143"/>
-      <c r="BM5" s="133" t="s">
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="131"/>
+      <c r="M5" s="131"/>
+      <c r="N5" s="131"/>
+      <c r="O5" s="131"/>
+      <c r="P5" s="131"/>
+      <c r="Q5" s="131"/>
+      <c r="R5" s="131"/>
+      <c r="S5" s="131"/>
+      <c r="T5" s="131"/>
+      <c r="U5" s="131"/>
+      <c r="V5" s="131"/>
+      <c r="W5" s="131"/>
+      <c r="X5" s="131"/>
+      <c r="Y5" s="131"/>
+      <c r="Z5" s="131"/>
+      <c r="AA5" s="131"/>
+      <c r="AB5" s="131"/>
+      <c r="AC5" s="131"/>
+      <c r="AD5" s="131"/>
+      <c r="AE5" s="131"/>
+      <c r="AF5" s="131"/>
+      <c r="AG5" s="131"/>
+      <c r="AH5" s="131"/>
+      <c r="AI5" s="131"/>
+      <c r="AJ5" s="131"/>
+      <c r="AK5" s="131"/>
+      <c r="AL5" s="131"/>
+      <c r="AM5" s="131"/>
+      <c r="AN5" s="131"/>
+      <c r="AO5" s="131"/>
+      <c r="AP5" s="131"/>
+      <c r="AQ5" s="131"/>
+      <c r="AR5" s="131"/>
+      <c r="AS5" s="131"/>
+      <c r="AT5" s="131"/>
+      <c r="AU5" s="131"/>
+      <c r="AV5" s="131"/>
+      <c r="AW5" s="131"/>
+      <c r="AX5" s="131"/>
+      <c r="AY5" s="131"/>
+      <c r="AZ5" s="131"/>
+      <c r="BA5" s="131"/>
+      <c r="BB5" s="131"/>
+      <c r="BC5" s="131"/>
+      <c r="BD5" s="131"/>
+      <c r="BE5" s="131"/>
+      <c r="BF5" s="131"/>
+      <c r="BG5" s="131"/>
+      <c r="BH5" s="131"/>
+      <c r="BI5" s="131"/>
+      <c r="BJ5" s="131"/>
+      <c r="BK5" s="131"/>
+      <c r="BL5" s="131"/>
+      <c r="BM5" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="BN5" s="134" t="s">
+      <c r="BN5" s="128" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:66" ht="15.75" thickBot="1">
-      <c r="A6" s="135"/>
-      <c r="B6" s="136"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="141" t="s">
+    <row r="6" spans="1:66" ht="17.25" thickBot="1">
+      <c r="A6" s="136"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141" t="s">
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="141"/>
-      <c r="L6" s="141"/>
-      <c r="M6" s="141"/>
-      <c r="N6" s="141"/>
-      <c r="O6" s="141" t="s">
+      <c r="K6" s="129"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="129"/>
+      <c r="O6" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="141"/>
-      <c r="Q6" s="141"/>
-      <c r="R6" s="141"/>
-      <c r="S6" s="141"/>
-      <c r="T6" s="141" t="s">
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="129"/>
+      <c r="S6" s="129"/>
+      <c r="T6" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="U6" s="141"/>
-      <c r="V6" s="141"/>
-      <c r="W6" s="141"/>
-      <c r="X6" s="141"/>
-      <c r="Y6" s="141" t="s">
+      <c r="U6" s="129"/>
+      <c r="V6" s="129"/>
+      <c r="W6" s="129"/>
+      <c r="X6" s="129"/>
+      <c r="Y6" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="Z6" s="141"/>
-      <c r="AA6" s="141"/>
-      <c r="AB6" s="141"/>
-      <c r="AC6" s="141"/>
-      <c r="AD6" s="141" t="s">
+      <c r="Z6" s="129"/>
+      <c r="AA6" s="129"/>
+      <c r="AB6" s="129"/>
+      <c r="AC6" s="129"/>
+      <c r="AD6" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="AE6" s="141"/>
-      <c r="AF6" s="141"/>
-      <c r="AG6" s="141"/>
-      <c r="AH6" s="141"/>
-      <c r="AI6" s="141" t="s">
+      <c r="AE6" s="129"/>
+      <c r="AF6" s="129"/>
+      <c r="AG6" s="129"/>
+      <c r="AH6" s="129"/>
+      <c r="AI6" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="AJ6" s="141"/>
-      <c r="AK6" s="141"/>
-      <c r="AL6" s="141"/>
-      <c r="AM6" s="141"/>
-      <c r="AN6" s="141" t="s">
+      <c r="AJ6" s="129"/>
+      <c r="AK6" s="129"/>
+      <c r="AL6" s="129"/>
+      <c r="AM6" s="129"/>
+      <c r="AN6" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="AO6" s="141"/>
-      <c r="AP6" s="141"/>
-      <c r="AQ6" s="141"/>
-      <c r="AR6" s="141"/>
-      <c r="AS6" s="141" t="s">
+      <c r="AO6" s="129"/>
+      <c r="AP6" s="129"/>
+      <c r="AQ6" s="129"/>
+      <c r="AR6" s="129"/>
+      <c r="AS6" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="AT6" s="141"/>
-      <c r="AU6" s="141"/>
-      <c r="AV6" s="141"/>
-      <c r="AW6" s="141"/>
-      <c r="AX6" s="141" t="s">
+      <c r="AT6" s="129"/>
+      <c r="AU6" s="129"/>
+      <c r="AV6" s="129"/>
+      <c r="AW6" s="129"/>
+      <c r="AX6" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="AY6" s="141"/>
-      <c r="AZ6" s="141"/>
-      <c r="BA6" s="141"/>
-      <c r="BB6" s="141"/>
-      <c r="BC6" s="141" t="s">
+      <c r="AY6" s="129"/>
+      <c r="AZ6" s="129"/>
+      <c r="BA6" s="129"/>
+      <c r="BB6" s="129"/>
+      <c r="BC6" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="BD6" s="141"/>
-      <c r="BE6" s="141"/>
-      <c r="BF6" s="141"/>
-      <c r="BG6" s="141"/>
-      <c r="BH6" s="142" t="s">
+      <c r="BD6" s="129"/>
+      <c r="BE6" s="129"/>
+      <c r="BF6" s="129"/>
+      <c r="BG6" s="129"/>
+      <c r="BH6" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="BI6" s="142"/>
-      <c r="BJ6" s="142"/>
-      <c r="BK6" s="142"/>
-      <c r="BL6" s="142"/>
-      <c r="BM6" s="133"/>
-      <c r="BN6" s="134"/>
+      <c r="BI6" s="130"/>
+      <c r="BJ6" s="130"/>
+      <c r="BK6" s="130"/>
+      <c r="BL6" s="130"/>
+      <c r="BM6" s="135"/>
+      <c r="BN6" s="128"/>
     </row>
     <row r="7" spans="1:66">
       <c r="A7" s="104" t="s">
@@ -2388,9 +2385,9 @@
         <v>99</v>
       </c>
       <c r="E8" s="123"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="125"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="124"/>
       <c r="I8" s="21"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -2458,13 +2455,13 @@
         <v>71</v>
       </c>
       <c r="C9" s="108"/>
-      <c r="D9" s="129" t="s">
+      <c r="D9" s="141" t="s">
         <v>77</v>
       </c>
       <c r="E9"/>
       <c r="F9" s="124"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="167"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
       <c r="I9" s="21"/>
       <c r="J9" s="20"/>
       <c r="K9"/>
@@ -2525,18 +2522,18 @@
       <c r="BN9" s="22"/>
     </row>
     <row r="10" spans="1:66" ht="16.5" customHeight="1">
-      <c r="A10" s="127" t="s">
+      <c r="A10" s="139" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="107" t="s">
         <v>72</v>
       </c>
       <c r="C10" s="108"/>
-      <c r="D10" s="129"/>
+      <c r="D10" s="141"/>
       <c r="E10" s="20"/>
-      <c r="F10" s="166"/>
+      <c r="F10" s="125"/>
       <c r="G10" s="115"/>
-      <c r="H10" s="169"/>
+      <c r="H10" s="125"/>
       <c r="I10" s="21"/>
       <c r="J10" s="19"/>
       <c r="K10"/>
@@ -2597,16 +2594,16 @@
       <c r="BN10" s="22"/>
     </row>
     <row r="11" spans="1:66">
-      <c r="A11" s="127"/>
+      <c r="A11" s="139"/>
       <c r="B11" s="107" t="s">
         <v>73</v>
       </c>
       <c r="C11" s="108"/>
-      <c r="D11" s="129"/>
+      <c r="D11" s="141"/>
       <c r="E11" s="19"/>
-      <c r="F11" s="166"/>
+      <c r="F11" s="125"/>
       <c r="G11" s="115"/>
-      <c r="H11" s="169"/>
+      <c r="H11" s="125"/>
       <c r="I11" s="21"/>
       <c r="J11" s="19"/>
       <c r="K11" s="114"/>
@@ -2667,16 +2664,16 @@
       <c r="BN11" s="22"/>
     </row>
     <row r="12" spans="1:66">
-      <c r="A12" s="127"/>
+      <c r="A12" s="139"/>
       <c r="B12" s="107" t="s">
         <v>74</v>
       </c>
       <c r="C12" s="108"/>
-      <c r="D12" s="129"/>
+      <c r="D12" s="141"/>
       <c r="E12" s="19"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="166"/>
-      <c r="H12" s="166"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="125"/>
       <c r="I12" s="21"/>
       <c r="J12" s="19"/>
       <c r="K12" s="114"/>
@@ -2737,16 +2734,16 @@
       <c r="BN12" s="22"/>
     </row>
     <row r="13" spans="1:66" ht="16.5" customHeight="1">
-      <c r="A13" s="127"/>
+      <c r="A13" s="139"/>
       <c r="B13" s="105" t="s">
         <v>75</v>
       </c>
       <c r="C13" s="108"/>
-      <c r="D13" s="129"/>
+      <c r="D13" s="141"/>
       <c r="E13" s="19"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="166"/>
-      <c r="H13" s="166"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="125"/>
       <c r="I13" s="21"/>
       <c r="J13" s="19"/>
       <c r="K13"/>
@@ -2807,16 +2804,16 @@
       <c r="BN13" s="22"/>
     </row>
     <row r="14" spans="1:66" ht="16.5" customHeight="1">
-      <c r="A14" s="127"/>
+      <c r="A14" s="139"/>
       <c r="B14" s="105" t="s">
         <v>76</v>
       </c>
       <c r="C14" s="108"/>
-      <c r="D14" s="129"/>
+      <c r="D14" s="141"/>
       <c r="E14" s="19"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="166"/>
-      <c r="H14" s="166"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
       <c r="I14" s="21"/>
       <c r="J14" s="19"/>
       <c r="K14"/>
@@ -2877,14 +2874,14 @@
       <c r="BN14" s="22"/>
     </row>
     <row r="15" spans="1:66">
-      <c r="A15" s="138" t="s">
+      <c r="A15" s="140" t="s">
         <v>78</v>
       </c>
       <c r="B15" s="119" t="s">
         <v>79</v>
       </c>
       <c r="C15" s="108"/>
-      <c r="D15" s="129" t="s">
+      <c r="D15" s="141" t="s">
         <v>100</v>
       </c>
       <c r="E15" s="19"/>
@@ -2950,12 +2947,12 @@
       <c r="BN15" s="22"/>
     </row>
     <row r="16" spans="1:66">
-      <c r="A16" s="138"/>
+      <c r="A16" s="140"/>
       <c r="B16" s="120" t="s">
         <v>80</v>
       </c>
       <c r="C16" s="108"/>
-      <c r="D16" s="129"/>
+      <c r="D16" s="141"/>
       <c r="E16" s="19"/>
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
@@ -3020,12 +3017,12 @@
       <c r="BN16" s="22"/>
     </row>
     <row r="17" spans="1:66">
-      <c r="A17" s="138"/>
+      <c r="A17" s="140"/>
       <c r="B17" s="121" t="s">
         <v>81</v>
       </c>
       <c r="C17" s="108"/>
-      <c r="D17" s="129"/>
+      <c r="D17" s="141"/>
       <c r="E17" s="19"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
@@ -3090,12 +3087,12 @@
       <c r="BN17" s="22"/>
     </row>
     <row r="18" spans="1:66">
-      <c r="A18" s="138"/>
+      <c r="A18" s="140"/>
       <c r="B18" s="119" t="s">
         <v>82</v>
       </c>
       <c r="C18" s="108"/>
-      <c r="D18" s="129"/>
+      <c r="D18" s="141"/>
       <c r="E18" s="19"/>
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
@@ -3160,12 +3157,12 @@
       <c r="BN18" s="22"/>
     </row>
     <row r="19" spans="1:66">
-      <c r="A19" s="138"/>
+      <c r="A19" s="140"/>
       <c r="B19" s="122" t="s">
         <v>83</v>
       </c>
       <c r="C19" s="108"/>
-      <c r="D19" s="129"/>
+      <c r="D19" s="141"/>
       <c r="E19" s="19"/>
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
@@ -3230,12 +3227,12 @@
       <c r="BN19" s="22"/>
     </row>
     <row r="20" spans="1:66">
-      <c r="A20" s="138"/>
+      <c r="A20" s="140"/>
       <c r="B20" s="122" t="s">
         <v>84</v>
       </c>
       <c r="C20" s="108"/>
-      <c r="D20" s="129"/>
+      <c r="D20" s="141"/>
       <c r="E20" s="19"/>
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
@@ -3300,12 +3297,12 @@
       <c r="BN20" s="22"/>
     </row>
     <row r="21" spans="1:66">
-      <c r="A21" s="138"/>
+      <c r="A21" s="140"/>
       <c r="B21" s="122" t="s">
         <v>85</v>
       </c>
       <c r="C21" s="108"/>
-      <c r="D21" s="129"/>
+      <c r="D21" s="141"/>
       <c r="E21" s="19"/>
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
@@ -3370,12 +3367,12 @@
       <c r="BN21" s="22"/>
     </row>
     <row r="22" spans="1:66">
-      <c r="A22" s="138"/>
+      <c r="A22" s="140"/>
       <c r="B22" s="122" t="s">
         <v>86</v>
       </c>
       <c r="C22" s="108"/>
-      <c r="D22" s="129"/>
+      <c r="D22" s="141"/>
       <c r="E22" s="19"/>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
@@ -3440,12 +3437,12 @@
       <c r="BN22" s="22"/>
     </row>
     <row r="23" spans="1:66">
-      <c r="A23" s="138"/>
+      <c r="A23" s="140"/>
       <c r="B23" s="122" t="s">
         <v>87</v>
       </c>
       <c r="C23" s="108"/>
-      <c r="D23" s="129"/>
+      <c r="D23" s="141"/>
       <c r="E23" s="19"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
@@ -3510,12 +3507,12 @@
       <c r="BN23" s="22"/>
     </row>
     <row r="24" spans="1:66">
-      <c r="A24" s="138"/>
+      <c r="A24" s="140"/>
       <c r="B24" s="119" t="s">
         <v>88</v>
       </c>
       <c r="C24" s="108"/>
-      <c r="D24" s="129"/>
+      <c r="D24" s="141"/>
       <c r="E24" s="19"/>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
@@ -3580,12 +3577,12 @@
       <c r="BN24" s="22"/>
     </row>
     <row r="25" spans="1:66">
-      <c r="A25" s="138"/>
+      <c r="A25" s="140"/>
       <c r="B25" s="121" t="s">
         <v>89</v>
       </c>
       <c r="C25" s="108"/>
-      <c r="D25" s="129"/>
+      <c r="D25" s="141"/>
       <c r="E25" s="19"/>
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
@@ -3650,12 +3647,12 @@
       <c r="BN25" s="22"/>
     </row>
     <row r="26" spans="1:66">
-      <c r="A26" s="138"/>
+      <c r="A26" s="140"/>
       <c r="B26" s="119" t="s">
         <v>90</v>
       </c>
       <c r="C26" s="108"/>
-      <c r="D26" s="129"/>
+      <c r="D26" s="141"/>
       <c r="E26" s="19"/>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
@@ -3720,14 +3717,14 @@
       <c r="BN26" s="22"/>
     </row>
     <row r="27" spans="1:66" ht="16.5" customHeight="1">
-      <c r="A27" s="127" t="s">
+      <c r="A27" s="139" t="s">
         <v>93</v>
       </c>
       <c r="B27" s="105" t="s">
         <v>94</v>
       </c>
       <c r="C27" s="108"/>
-      <c r="D27" s="129" t="s">
+      <c r="D27" s="141" t="s">
         <v>101</v>
       </c>
       <c r="E27" s="19"/>
@@ -3794,12 +3791,12 @@
       <c r="BN27" s="22"/>
     </row>
     <row r="28" spans="1:66">
-      <c r="A28" s="127"/>
+      <c r="A28" s="139"/>
       <c r="B28" s="105" t="s">
         <v>95</v>
       </c>
       <c r="C28" s="108"/>
-      <c r="D28" s="129"/>
+      <c r="D28" s="141"/>
       <c r="E28" s="19"/>
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
@@ -3864,12 +3861,12 @@
       <c r="BN28" s="22"/>
     </row>
     <row r="29" spans="1:66">
-      <c r="A29" s="127"/>
+      <c r="A29" s="139"/>
       <c r="B29" s="105" t="s">
         <v>96</v>
       </c>
       <c r="C29" s="108"/>
-      <c r="D29" s="129"/>
+      <c r="D29" s="141"/>
       <c r="E29" s="19"/>
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
@@ -3933,14 +3930,14 @@
       <c r="BN29" s="22"/>
     </row>
     <row r="30" spans="1:66" ht="16.5" customHeight="1">
-      <c r="A30" s="127" t="s">
+      <c r="A30" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="128" t="s">
+      <c r="B30" s="145" t="s">
         <v>98</v>
       </c>
       <c r="C30" s="109"/>
-      <c r="D30" s="129" t="s">
+      <c r="D30" s="141" t="s">
         <v>102</v>
       </c>
       <c r="E30" s="19"/>
@@ -4007,10 +4004,10 @@
       <c r="BN30" s="22"/>
     </row>
     <row r="31" spans="1:66">
-      <c r="A31" s="127"/>
-      <c r="B31" s="128"/>
+      <c r="A31" s="139"/>
+      <c r="B31" s="145"/>
       <c r="C31" s="106"/>
-      <c r="D31" s="129"/>
+      <c r="D31" s="141"/>
       <c r="E31" s="19"/>
       <c r="F31" s="20"/>
       <c r="G31" s="20"/>
@@ -4075,10 +4072,10 @@
       <c r="BN31" s="22"/>
     </row>
     <row r="32" spans="1:66">
-      <c r="A32" s="127"/>
-      <c r="B32" s="128"/>
+      <c r="A32" s="139"/>
+      <c r="B32" s="145"/>
       <c r="C32" s="106"/>
-      <c r="D32" s="129"/>
+      <c r="D32" s="141"/>
       <c r="E32" s="19"/>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
@@ -4143,10 +4140,10 @@
       <c r="BN32" s="22"/>
     </row>
     <row r="33" spans="1:66" ht="18" customHeight="1">
-      <c r="A33" s="127"/>
-      <c r="B33" s="128"/>
+      <c r="A33" s="139"/>
+      <c r="B33" s="145"/>
       <c r="C33" s="106"/>
-      <c r="D33" s="129"/>
+      <c r="D33" s="141"/>
       <c r="E33" s="19"/>
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
@@ -4211,10 +4208,10 @@
       <c r="BN33" s="22"/>
     </row>
     <row r="34" spans="1:66">
-      <c r="A34" s="127"/>
-      <c r="B34" s="128"/>
+      <c r="A34" s="139"/>
+      <c r="B34" s="145"/>
       <c r="C34" s="106"/>
-      <c r="D34" s="129"/>
+      <c r="D34" s="141"/>
       <c r="E34" s="19"/>
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
@@ -4279,10 +4276,10 @@
       <c r="BN34" s="22"/>
     </row>
     <row r="35" spans="1:66">
-      <c r="A35" s="127"/>
-      <c r="B35" s="128"/>
+      <c r="A35" s="139"/>
+      <c r="B35" s="145"/>
       <c r="C35" s="106"/>
-      <c r="D35" s="129"/>
+      <c r="D35" s="141"/>
       <c r="E35" s="19"/>
       <c r="F35" s="20"/>
       <c r="G35" s="20"/>
@@ -4347,10 +4344,10 @@
       <c r="BN35" s="22"/>
     </row>
     <row r="36" spans="1:66">
-      <c r="A36" s="127"/>
-      <c r="B36" s="128"/>
+      <c r="A36" s="139"/>
+      <c r="B36" s="145"/>
       <c r="C36" s="28"/>
-      <c r="D36" s="129"/>
+      <c r="D36" s="141"/>
       <c r="E36" s="19"/>
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
@@ -4415,10 +4412,10 @@
       <c r="BN36" s="22"/>
     </row>
     <row r="37" spans="1:66">
-      <c r="A37" s="127"/>
-      <c r="B37" s="128"/>
+      <c r="A37" s="139"/>
+      <c r="B37" s="145"/>
       <c r="C37" s="28"/>
-      <c r="D37" s="129"/>
+      <c r="D37" s="141"/>
       <c r="E37" s="19"/>
       <c r="F37" s="20"/>
       <c r="G37" s="20"/>
@@ -4483,10 +4480,10 @@
       <c r="BN37" s="22"/>
     </row>
     <row r="38" spans="1:66">
-      <c r="A38" s="127"/>
-      <c r="B38" s="128"/>
+      <c r="A38" s="139"/>
+      <c r="B38" s="145"/>
       <c r="C38" s="28"/>
-      <c r="D38" s="129"/>
+      <c r="D38" s="141"/>
       <c r="E38" s="19"/>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
@@ -4551,10 +4548,10 @@
       <c r="BN38" s="22"/>
     </row>
     <row r="39" spans="1:66">
-      <c r="A39" s="127"/>
-      <c r="B39" s="128"/>
+      <c r="A39" s="139"/>
+      <c r="B39" s="145"/>
       <c r="C39" s="28"/>
-      <c r="D39" s="129"/>
+      <c r="D39" s="141"/>
       <c r="E39" s="19"/>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
@@ -4619,14 +4616,14 @@
       <c r="BN39" s="22"/>
     </row>
     <row r="40" spans="1:66" ht="16.5" customHeight="1">
-      <c r="A40" s="127" t="s">
+      <c r="A40" s="139" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="139" t="s">
+      <c r="B40" s="142" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="140"/>
-      <c r="D40" s="129" t="s">
+      <c r="C40" s="143"/>
+      <c r="D40" s="141" t="s">
         <v>91</v>
       </c>
       <c r="E40" s="19"/>
@@ -4693,10 +4690,10 @@
       <c r="BN40" s="22"/>
     </row>
     <row r="41" spans="1:66">
-      <c r="A41" s="127"/>
-      <c r="B41" s="139"/>
-      <c r="C41" s="140"/>
-      <c r="D41" s="129"/>
+      <c r="A41" s="139"/>
+      <c r="B41" s="142"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="141"/>
       <c r="E41" s="19"/>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
@@ -5979,7 +5976,7 @@
       <c r="BN59" s="22"/>
       <c r="BO59" s="20"/>
     </row>
-    <row r="60" spans="1:67" ht="15.75" thickBot="1">
+    <row r="60" spans="1:67" ht="17.25" thickBot="1">
       <c r="A60" s="104"/>
       <c r="B60" s="24"/>
       <c r="C60" s="17"/>
@@ -6047,8 +6044,8 @@
       <c r="BM60" s="32"/>
       <c r="BN60" s="32"/>
     </row>
-    <row r="61" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A61" s="130" t="s">
+    <row r="61" spans="1:67" ht="17.25" thickBot="1">
+      <c r="A61" s="132" t="s">
         <v>24</v>
       </c>
       <c r="B61" s="33"/>
@@ -6117,8 +6114,8 @@
       <c r="BM61" s="22"/>
       <c r="BN61" s="22"/>
     </row>
-    <row r="62" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A62" s="131"/>
+    <row r="62" spans="1:67" ht="17.25" thickBot="1">
+      <c r="A62" s="133"/>
       <c r="B62" s="24"/>
       <c r="C62" s="39"/>
       <c r="D62" s="26"/>
@@ -6186,7 +6183,7 @@
       <c r="BN62" s="32"/>
     </row>
     <row r="63" spans="1:67" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A63" s="132" t="s">
+      <c r="A63" s="134" t="s">
         <v>25</v>
       </c>
       <c r="B63" s="33"/>
@@ -6255,8 +6252,8 @@
       <c r="BM63" s="22"/>
       <c r="BN63" s="22"/>
     </row>
-    <row r="64" spans="1:67" ht="15.75" thickBot="1">
-      <c r="A64" s="132"/>
+    <row r="64" spans="1:67" ht="17.25" thickBot="1">
+      <c r="A64" s="134"/>
       <c r="B64" s="40"/>
       <c r="C64" s="25"/>
       <c r="D64" s="26"/>
@@ -6323,8 +6320,8 @@
       <c r="BM64" s="22"/>
       <c r="BN64" s="22"/>
     </row>
-    <row r="65" spans="1:66" ht="15.75" thickBot="1">
-      <c r="A65" s="132"/>
+    <row r="65" spans="1:66" ht="17.25" thickBot="1">
+      <c r="A65" s="134"/>
       <c r="B65" s="40"/>
       <c r="C65" s="41"/>
       <c r="D65" s="26"/>
@@ -6459,7 +6456,7 @@
       <c r="BM66" s="54"/>
       <c r="BN66" s="54"/>
     </row>
-    <row r="67" spans="1:66" ht="15.75" thickBot="1">
+    <row r="67" spans="1:66" ht="17.25" thickBot="1">
       <c r="A67" s="29"/>
       <c r="B67" s="55"/>
       <c r="C67" s="55"/>
@@ -6527,7 +6524,7 @@
       <c r="BM67" s="54"/>
       <c r="BN67" s="53"/>
     </row>
-    <row r="68" spans="1:66" ht="15.75" thickBot="1">
+    <row r="68" spans="1:66" ht="17.25" thickBot="1">
       <c r="E68" s="60" t="s">
         <v>26</v>
       </c>
@@ -6601,6 +6598,27 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="B30:B39"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="D30:D39"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="BM5:BM6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A26"/>
+    <mergeCell ref="D15:D26"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
     <mergeCell ref="BN5:BN6"/>
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="J6:N6"/>
@@ -6615,27 +6633,6 @@
     <mergeCell ref="BC6:BG6"/>
     <mergeCell ref="BH6:BL6"/>
     <mergeCell ref="E5:BL5"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="BM5:BM6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A15:A26"/>
-    <mergeCell ref="D15:D26"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="B30:B39"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="D30:D39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -6732,27 +6729,27 @@
       <c r="H1" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="163" t="s">
+      <c r="I1" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
       <c r="N1" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="164" t="s">
+      <c r="O1" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="164"/>
-      <c r="R1" s="164"/>
-      <c r="S1" s="164"/>
-      <c r="T1" s="164"/>
-      <c r="U1" s="164"/>
-      <c r="V1" s="164"/>
-      <c r="W1" s="164"/>
+      <c r="P1" s="147"/>
+      <c r="Q1" s="147"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="147"/>
+      <c r="T1" s="147"/>
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
+      <c r="W1" s="147"/>
       <c r="X1" s="78"/>
       <c r="Y1" s="78"/>
       <c r="Z1" s="78"/>
@@ -6855,419 +6852,419 @@
       <c r="DS1" s="79"/>
     </row>
     <row r="2" spans="1:222">
-      <c r="H2" s="155" t="s">
+      <c r="H2" s="148" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="157" t="s">
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="157"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="157"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="157"/>
-      <c r="U2" s="157"/>
-      <c r="V2" s="157"/>
-      <c r="W2" s="157"/>
-      <c r="X2" s="165" t="s">
+      <c r="O2" s="149"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="149"/>
+      <c r="S2" s="149"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="150" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" s="165"/>
-      <c r="Z2" s="165"/>
-      <c r="AA2" s="165"/>
-      <c r="AB2" s="165"/>
-      <c r="AC2" s="165"/>
-      <c r="AD2" s="165"/>
-      <c r="AE2" s="165"/>
-      <c r="AF2" s="165"/>
-      <c r="AG2" s="165"/>
-      <c r="AH2" s="157" t="s">
+      <c r="Y2" s="150"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="150"/>
+      <c r="AB2" s="150"/>
+      <c r="AC2" s="150"/>
+      <c r="AD2" s="150"/>
+      <c r="AE2" s="150"/>
+      <c r="AF2" s="150"/>
+      <c r="AG2" s="150"/>
+      <c r="AH2" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="AI2" s="157"/>
-      <c r="AJ2" s="157"/>
-      <c r="AK2" s="157"/>
-      <c r="AL2" s="157"/>
-      <c r="AM2" s="157"/>
-      <c r="AN2" s="157"/>
-      <c r="AO2" s="157"/>
-      <c r="AP2" s="157"/>
-      <c r="AQ2" s="157"/>
-      <c r="AR2" s="156" t="s">
+      <c r="AI2" s="149"/>
+      <c r="AJ2" s="149"/>
+      <c r="AK2" s="149"/>
+      <c r="AL2" s="149"/>
+      <c r="AM2" s="149"/>
+      <c r="AN2" s="149"/>
+      <c r="AO2" s="149"/>
+      <c r="AP2" s="149"/>
+      <c r="AQ2" s="149"/>
+      <c r="AR2" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="AS2" s="156"/>
-      <c r="AT2" s="156"/>
-      <c r="AU2" s="156"/>
-      <c r="AV2" s="156"/>
-      <c r="AW2" s="156"/>
-      <c r="AX2" s="156"/>
-      <c r="AY2" s="156"/>
-      <c r="AZ2" s="156"/>
-      <c r="BA2" s="156"/>
-      <c r="BB2" s="157" t="s">
+      <c r="AS2" s="151"/>
+      <c r="AT2" s="151"/>
+      <c r="AU2" s="151"/>
+      <c r="AV2" s="151"/>
+      <c r="AW2" s="151"/>
+      <c r="AX2" s="151"/>
+      <c r="AY2" s="151"/>
+      <c r="AZ2" s="151"/>
+      <c r="BA2" s="151"/>
+      <c r="BB2" s="149" t="s">
         <v>39</v>
       </c>
-      <c r="BC2" s="157"/>
-      <c r="BD2" s="157"/>
-      <c r="BE2" s="157"/>
-      <c r="BF2" s="157"/>
-      <c r="BG2" s="157"/>
-      <c r="BH2" s="157"/>
-      <c r="BI2" s="157"/>
-      <c r="BJ2" s="157"/>
-      <c r="BK2" s="157"/>
-      <c r="BL2" s="156" t="s">
+      <c r="BC2" s="149"/>
+      <c r="BD2" s="149"/>
+      <c r="BE2" s="149"/>
+      <c r="BF2" s="149"/>
+      <c r="BG2" s="149"/>
+      <c r="BH2" s="149"/>
+      <c r="BI2" s="149"/>
+      <c r="BJ2" s="149"/>
+      <c r="BK2" s="149"/>
+      <c r="BL2" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="BM2" s="156"/>
-      <c r="BN2" s="156"/>
-      <c r="BO2" s="156"/>
-      <c r="BP2" s="156"/>
-      <c r="BQ2" s="156"/>
-      <c r="BR2" s="156"/>
-      <c r="BS2" s="156"/>
-      <c r="BT2" s="156"/>
-      <c r="BU2" s="156"/>
-      <c r="BV2" s="157" t="s">
+      <c r="BM2" s="151"/>
+      <c r="BN2" s="151"/>
+      <c r="BO2" s="151"/>
+      <c r="BP2" s="151"/>
+      <c r="BQ2" s="151"/>
+      <c r="BR2" s="151"/>
+      <c r="BS2" s="151"/>
+      <c r="BT2" s="151"/>
+      <c r="BU2" s="151"/>
+      <c r="BV2" s="149" t="s">
         <v>41</v>
       </c>
-      <c r="BW2" s="157"/>
-      <c r="BX2" s="157"/>
-      <c r="BY2" s="157"/>
-      <c r="BZ2" s="157"/>
-      <c r="CA2" s="157"/>
-      <c r="CB2" s="157"/>
-      <c r="CC2" s="157"/>
-      <c r="CD2" s="157"/>
-      <c r="CE2" s="157"/>
-      <c r="CF2" s="156" t="s">
+      <c r="BW2" s="149"/>
+      <c r="BX2" s="149"/>
+      <c r="BY2" s="149"/>
+      <c r="BZ2" s="149"/>
+      <c r="CA2" s="149"/>
+      <c r="CB2" s="149"/>
+      <c r="CC2" s="149"/>
+      <c r="CD2" s="149"/>
+      <c r="CE2" s="149"/>
+      <c r="CF2" s="151" t="s">
         <v>42</v>
       </c>
-      <c r="CG2" s="156"/>
-      <c r="CH2" s="156"/>
-      <c r="CI2" s="156"/>
-      <c r="CJ2" s="156"/>
-      <c r="CK2" s="156"/>
-      <c r="CL2" s="156"/>
-      <c r="CM2" s="156"/>
-      <c r="CN2" s="156"/>
-      <c r="CO2" s="156"/>
-      <c r="CP2" s="157" t="s">
+      <c r="CG2" s="151"/>
+      <c r="CH2" s="151"/>
+      <c r="CI2" s="151"/>
+      <c r="CJ2" s="151"/>
+      <c r="CK2" s="151"/>
+      <c r="CL2" s="151"/>
+      <c r="CM2" s="151"/>
+      <c r="CN2" s="151"/>
+      <c r="CO2" s="151"/>
+      <c r="CP2" s="149" t="s">
         <v>43</v>
       </c>
-      <c r="CQ2" s="157"/>
-      <c r="CR2" s="157"/>
-      <c r="CS2" s="157"/>
-      <c r="CT2" s="157"/>
-      <c r="CU2" s="157"/>
-      <c r="CV2" s="157"/>
-      <c r="CW2" s="157"/>
-      <c r="CX2" s="157"/>
-      <c r="CY2" s="157"/>
-      <c r="CZ2" s="158" t="s">
+      <c r="CQ2" s="149"/>
+      <c r="CR2" s="149"/>
+      <c r="CS2" s="149"/>
+      <c r="CT2" s="149"/>
+      <c r="CU2" s="149"/>
+      <c r="CV2" s="149"/>
+      <c r="CW2" s="149"/>
+      <c r="CX2" s="149"/>
+      <c r="CY2" s="149"/>
+      <c r="CZ2" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="DA2" s="158"/>
-      <c r="DB2" s="158"/>
-      <c r="DC2" s="158"/>
-      <c r="DD2" s="158"/>
-      <c r="DE2" s="158"/>
-      <c r="DF2" s="158"/>
-      <c r="DG2" s="158"/>
-      <c r="DH2" s="158"/>
-      <c r="DI2" s="158"/>
-      <c r="DJ2" s="159" t="s">
+      <c r="DA2" s="152"/>
+      <c r="DB2" s="152"/>
+      <c r="DC2" s="152"/>
+      <c r="DD2" s="152"/>
+      <c r="DE2" s="152"/>
+      <c r="DF2" s="152"/>
+      <c r="DG2" s="152"/>
+      <c r="DH2" s="152"/>
+      <c r="DI2" s="152"/>
+      <c r="DJ2" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="DK2" s="159"/>
-      <c r="DL2" s="159"/>
-      <c r="DM2" s="159"/>
-      <c r="DN2" s="159"/>
-      <c r="DO2" s="159"/>
-      <c r="DP2" s="159"/>
-      <c r="DQ2" s="159"/>
-      <c r="DR2" s="159"/>
-      <c r="DS2" s="159"/>
+      <c r="DK2" s="153"/>
+      <c r="DL2" s="153"/>
+      <c r="DM2" s="153"/>
+      <c r="DN2" s="153"/>
+      <c r="DO2" s="153"/>
+      <c r="DP2" s="153"/>
+      <c r="DQ2" s="153"/>
+      <c r="DR2" s="153"/>
+      <c r="DS2" s="153"/>
     </row>
     <row r="3" spans="1:222" ht="15" customHeight="1">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="154" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="160" t="s">
+      <c r="B3" s="154" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="161" t="s">
+      <c r="C3" s="155" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="160" t="s">
+      <c r="D3" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="162" t="s">
+      <c r="E3" s="156" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="162" t="s">
+      <c r="F3" s="156" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="160" t="s">
+      <c r="G3" s="154" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="148" t="s">
+      <c r="H3" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148" t="s">
+      <c r="I3" s="157"/>
+      <c r="J3" s="157" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="148"/>
-      <c r="L3" s="155" t="s">
+      <c r="K3" s="157"/>
+      <c r="L3" s="148" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="155"/>
-      <c r="N3" s="154" t="s">
+      <c r="M3" s="148"/>
+      <c r="N3" s="158" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="154"/>
-      <c r="P3" s="144" t="s">
+      <c r="O3" s="158"/>
+      <c r="P3" s="159" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" s="144"/>
-      <c r="R3" s="144" t="s">
+      <c r="Q3" s="159"/>
+      <c r="R3" s="159" t="s">
         <v>53</v>
       </c>
-      <c r="S3" s="144"/>
-      <c r="T3" s="144" t="s">
+      <c r="S3" s="159"/>
+      <c r="T3" s="159" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="144"/>
-      <c r="V3" s="145" t="s">
+      <c r="U3" s="159"/>
+      <c r="V3" s="160" t="s">
         <v>55</v>
       </c>
-      <c r="W3" s="145"/>
-      <c r="X3" s="152" t="s">
+      <c r="W3" s="160"/>
+      <c r="X3" s="161" t="s">
         <v>56</v>
       </c>
-      <c r="Y3" s="152"/>
-      <c r="Z3" s="148" t="s">
+      <c r="Y3" s="161"/>
+      <c r="Z3" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="AA3" s="148"/>
-      <c r="AB3" s="148" t="s">
+      <c r="AA3" s="157"/>
+      <c r="AB3" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="AC3" s="148"/>
-      <c r="AD3" s="148" t="s">
+      <c r="AC3" s="157"/>
+      <c r="AD3" s="157" t="s">
         <v>54</v>
       </c>
-      <c r="AE3" s="148"/>
-      <c r="AF3" s="155" t="s">
+      <c r="AE3" s="157"/>
+      <c r="AF3" s="148" t="s">
         <v>55</v>
       </c>
-      <c r="AG3" s="155"/>
-      <c r="AH3" s="154" t="s">
+      <c r="AG3" s="148"/>
+      <c r="AH3" s="158" t="s">
         <v>56</v>
       </c>
-      <c r="AI3" s="154"/>
-      <c r="AJ3" s="144" t="s">
+      <c r="AI3" s="158"/>
+      <c r="AJ3" s="159" t="s">
         <v>57</v>
       </c>
-      <c r="AK3" s="144"/>
-      <c r="AL3" s="144" t="s">
+      <c r="AK3" s="159"/>
+      <c r="AL3" s="159" t="s">
         <v>53</v>
       </c>
-      <c r="AM3" s="144"/>
-      <c r="AN3" s="144" t="s">
+      <c r="AM3" s="159"/>
+      <c r="AN3" s="159" t="s">
         <v>54</v>
       </c>
-      <c r="AO3" s="144"/>
-      <c r="AP3" s="145" t="s">
+      <c r="AO3" s="159"/>
+      <c r="AP3" s="160" t="s">
         <v>55</v>
       </c>
-      <c r="AQ3" s="145"/>
-      <c r="AR3" s="152" t="s">
+      <c r="AQ3" s="160"/>
+      <c r="AR3" s="161" t="s">
         <v>56</v>
       </c>
-      <c r="AS3" s="152"/>
-      <c r="AT3" s="148" t="s">
+      <c r="AS3" s="161"/>
+      <c r="AT3" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="AU3" s="148"/>
-      <c r="AV3" s="148" t="s">
+      <c r="AU3" s="157"/>
+      <c r="AV3" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="AW3" s="148"/>
-      <c r="AX3" s="148" t="s">
+      <c r="AW3" s="157"/>
+      <c r="AX3" s="157" t="s">
         <v>54</v>
       </c>
-      <c r="AY3" s="148"/>
-      <c r="AZ3" s="155" t="s">
+      <c r="AY3" s="157"/>
+      <c r="AZ3" s="148" t="s">
         <v>55</v>
       </c>
-      <c r="BA3" s="155"/>
-      <c r="BB3" s="154" t="s">
+      <c r="BA3" s="148"/>
+      <c r="BB3" s="158" t="s">
         <v>56</v>
       </c>
-      <c r="BC3" s="154"/>
-      <c r="BD3" s="144" t="s">
+      <c r="BC3" s="158"/>
+      <c r="BD3" s="159" t="s">
         <v>57</v>
       </c>
-      <c r="BE3" s="144"/>
-      <c r="BF3" s="144" t="s">
+      <c r="BE3" s="159"/>
+      <c r="BF3" s="159" t="s">
         <v>53</v>
       </c>
-      <c r="BG3" s="144"/>
-      <c r="BH3" s="144" t="s">
+      <c r="BG3" s="159"/>
+      <c r="BH3" s="159" t="s">
         <v>54</v>
       </c>
-      <c r="BI3" s="144"/>
-      <c r="BJ3" s="145" t="s">
+      <c r="BI3" s="159"/>
+      <c r="BJ3" s="160" t="s">
         <v>55</v>
       </c>
-      <c r="BK3" s="145"/>
-      <c r="BL3" s="152" t="s">
+      <c r="BK3" s="160"/>
+      <c r="BL3" s="161" t="s">
         <v>56</v>
       </c>
-      <c r="BM3" s="152"/>
-      <c r="BN3" s="148" t="s">
+      <c r="BM3" s="161"/>
+      <c r="BN3" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="BO3" s="148"/>
-      <c r="BP3" s="148" t="s">
+      <c r="BO3" s="157"/>
+      <c r="BP3" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="BQ3" s="148"/>
-      <c r="BR3" s="148" t="s">
+      <c r="BQ3" s="157"/>
+      <c r="BR3" s="157" t="s">
         <v>54</v>
       </c>
-      <c r="BS3" s="148"/>
-      <c r="BT3" s="155" t="s">
+      <c r="BS3" s="157"/>
+      <c r="BT3" s="148" t="s">
         <v>55</v>
       </c>
-      <c r="BU3" s="155"/>
-      <c r="BV3" s="154" t="s">
+      <c r="BU3" s="148"/>
+      <c r="BV3" s="158" t="s">
         <v>56</v>
       </c>
-      <c r="BW3" s="154"/>
-      <c r="BX3" s="144" t="s">
+      <c r="BW3" s="158"/>
+      <c r="BX3" s="159" t="s">
         <v>57</v>
       </c>
-      <c r="BY3" s="144"/>
-      <c r="BZ3" s="144" t="s">
+      <c r="BY3" s="159"/>
+      <c r="BZ3" s="159" t="s">
         <v>53</v>
       </c>
-      <c r="CA3" s="144"/>
-      <c r="CB3" s="144" t="s">
+      <c r="CA3" s="159"/>
+      <c r="CB3" s="159" t="s">
         <v>54</v>
       </c>
-      <c r="CC3" s="144"/>
-      <c r="CD3" s="145" t="s">
+      <c r="CC3" s="159"/>
+      <c r="CD3" s="160" t="s">
         <v>55</v>
       </c>
-      <c r="CE3" s="145"/>
-      <c r="CF3" s="152" t="s">
+      <c r="CE3" s="160"/>
+      <c r="CF3" s="161" t="s">
         <v>56</v>
       </c>
-      <c r="CG3" s="152"/>
-      <c r="CH3" s="148" t="s">
+      <c r="CG3" s="161"/>
+      <c r="CH3" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="CI3" s="148"/>
-      <c r="CJ3" s="148" t="s">
+      <c r="CI3" s="157"/>
+      <c r="CJ3" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="CK3" s="148"/>
-      <c r="CL3" s="148" t="s">
+      <c r="CK3" s="157"/>
+      <c r="CL3" s="157" t="s">
         <v>54</v>
       </c>
-      <c r="CM3" s="148"/>
-      <c r="CN3" s="153" t="s">
+      <c r="CM3" s="157"/>
+      <c r="CN3" s="162" t="s">
         <v>55</v>
       </c>
-      <c r="CO3" s="153"/>
-      <c r="CP3" s="154" t="s">
+      <c r="CO3" s="162"/>
+      <c r="CP3" s="158" t="s">
         <v>56</v>
       </c>
-      <c r="CQ3" s="154"/>
-      <c r="CR3" s="144" t="s">
+      <c r="CQ3" s="158"/>
+      <c r="CR3" s="159" t="s">
         <v>57</v>
       </c>
-      <c r="CS3" s="144"/>
-      <c r="CT3" s="144" t="s">
+      <c r="CS3" s="159"/>
+      <c r="CT3" s="159" t="s">
         <v>53</v>
       </c>
-      <c r="CU3" s="144"/>
-      <c r="CV3" s="144" t="s">
+      <c r="CU3" s="159"/>
+      <c r="CV3" s="159" t="s">
         <v>54</v>
       </c>
-      <c r="CW3" s="144"/>
-      <c r="CX3" s="151" t="s">
+      <c r="CW3" s="159"/>
+      <c r="CX3" s="167" t="s">
         <v>58</v>
       </c>
-      <c r="CY3" s="151"/>
-      <c r="CZ3" s="152" t="s">
+      <c r="CY3" s="167"/>
+      <c r="CZ3" s="161" t="s">
         <v>56</v>
       </c>
-      <c r="DA3" s="152"/>
-      <c r="DB3" s="148" t="s">
+      <c r="DA3" s="161"/>
+      <c r="DB3" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="DC3" s="148"/>
-      <c r="DD3" s="148" t="s">
+      <c r="DC3" s="157"/>
+      <c r="DD3" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="DE3" s="148"/>
-      <c r="DF3" s="148" t="s">
+      <c r="DE3" s="157"/>
+      <c r="DF3" s="157" t="s">
         <v>54</v>
       </c>
-      <c r="DG3" s="148"/>
-      <c r="DH3" s="149" t="s">
+      <c r="DG3" s="157"/>
+      <c r="DH3" s="165" t="s">
         <v>55</v>
       </c>
-      <c r="DI3" s="149"/>
-      <c r="DJ3" s="150" t="s">
+      <c r="DI3" s="165"/>
+      <c r="DJ3" s="166" t="s">
         <v>56</v>
       </c>
-      <c r="DK3" s="150"/>
-      <c r="DL3" s="144" t="s">
+      <c r="DK3" s="166"/>
+      <c r="DL3" s="159" t="s">
         <v>57</v>
       </c>
-      <c r="DM3" s="144"/>
-      <c r="DN3" s="144" t="s">
+      <c r="DM3" s="159"/>
+      <c r="DN3" s="159" t="s">
         <v>53</v>
       </c>
-      <c r="DO3" s="144"/>
-      <c r="DP3" s="144" t="s">
+      <c r="DO3" s="159"/>
+      <c r="DP3" s="159" t="s">
         <v>54</v>
       </c>
-      <c r="DQ3" s="144"/>
-      <c r="DR3" s="145" t="s">
+      <c r="DQ3" s="159"/>
+      <c r="DR3" s="160" t="s">
         <v>55</v>
       </c>
-      <c r="DS3" s="145"/>
-      <c r="DT3" s="146" t="s">
+      <c r="DS3" s="160"/>
+      <c r="DT3" s="163" t="s">
         <v>59</v>
       </c>
-      <c r="DU3" s="146"/>
-      <c r="DV3" s="146"/>
-      <c r="DW3" s="146"/>
+      <c r="DU3" s="163"/>
+      <c r="DV3" s="163"/>
+      <c r="DW3" s="163"/>
       <c r="DX3" s="80" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:222">
-      <c r="A4" s="160"/>
-      <c r="B4" s="160"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="160"/>
+      <c r="A4" s="154"/>
+      <c r="B4" s="154"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="154"/>
       <c r="H4" s="81" t="s">
         <v>61</v>
       </c>
@@ -7538,10 +7535,10 @@
       <c r="CS4" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="CT4" s="147" t="s">
+      <c r="CT4" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="CU4" s="147" t="s">
+      <c r="CU4" s="164" t="s">
         <v>62</v>
       </c>
       <c r="CV4" s="84" t="s">
@@ -13143,16 +13140,61 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="O1:W1"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="N2:W2"/>
-    <mergeCell ref="X2:AG2"/>
-    <mergeCell ref="AH2:AQ2"/>
-    <mergeCell ref="AR2:BA2"/>
-    <mergeCell ref="BB2:BK2"/>
-    <mergeCell ref="BL2:BU2"/>
-    <mergeCell ref="BV2:CE2"/>
+    <mergeCell ref="DN3:DO3"/>
+    <mergeCell ref="DP3:DQ3"/>
+    <mergeCell ref="DR3:DS3"/>
+    <mergeCell ref="DT3:DW3"/>
+    <mergeCell ref="CT4:CU4"/>
+    <mergeCell ref="DD3:DE3"/>
+    <mergeCell ref="DF3:DG3"/>
+    <mergeCell ref="DH3:DI3"/>
+    <mergeCell ref="DJ3:DK3"/>
+    <mergeCell ref="DL3:DM3"/>
+    <mergeCell ref="CT3:CU3"/>
+    <mergeCell ref="CV3:CW3"/>
+    <mergeCell ref="CX3:CY3"/>
+    <mergeCell ref="CZ3:DA3"/>
+    <mergeCell ref="DB3:DC3"/>
+    <mergeCell ref="CJ3:CK3"/>
+    <mergeCell ref="CL3:CM3"/>
+    <mergeCell ref="CN3:CO3"/>
+    <mergeCell ref="CP3:CQ3"/>
+    <mergeCell ref="CR3:CS3"/>
+    <mergeCell ref="BZ3:CA3"/>
+    <mergeCell ref="CB3:CC3"/>
+    <mergeCell ref="CD3:CE3"/>
+    <mergeCell ref="CF3:CG3"/>
+    <mergeCell ref="CH3:CI3"/>
+    <mergeCell ref="BP3:BQ3"/>
+    <mergeCell ref="BR3:BS3"/>
+    <mergeCell ref="BT3:BU3"/>
+    <mergeCell ref="BV3:BW3"/>
+    <mergeCell ref="BX3:BY3"/>
+    <mergeCell ref="BF3:BG3"/>
+    <mergeCell ref="BH3:BI3"/>
+    <mergeCell ref="BJ3:BK3"/>
+    <mergeCell ref="BL3:BM3"/>
+    <mergeCell ref="BN3:BO3"/>
+    <mergeCell ref="AV3:AW3"/>
+    <mergeCell ref="AX3:AY3"/>
+    <mergeCell ref="AZ3:BA3"/>
+    <mergeCell ref="BB3:BC3"/>
+    <mergeCell ref="BD3:BE3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="CF2:CO2"/>
     <mergeCell ref="CP2:CY2"/>
     <mergeCell ref="CZ2:DI2"/>
@@ -13169,61 +13211,16 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="AV3:AW3"/>
-    <mergeCell ref="AX3:AY3"/>
-    <mergeCell ref="AZ3:BA3"/>
-    <mergeCell ref="BB3:BC3"/>
-    <mergeCell ref="BD3:BE3"/>
-    <mergeCell ref="BF3:BG3"/>
-    <mergeCell ref="BH3:BI3"/>
-    <mergeCell ref="BJ3:BK3"/>
-    <mergeCell ref="BL3:BM3"/>
-    <mergeCell ref="BN3:BO3"/>
-    <mergeCell ref="BP3:BQ3"/>
-    <mergeCell ref="BR3:BS3"/>
-    <mergeCell ref="BT3:BU3"/>
-    <mergeCell ref="BV3:BW3"/>
-    <mergeCell ref="BX3:BY3"/>
-    <mergeCell ref="BZ3:CA3"/>
-    <mergeCell ref="CB3:CC3"/>
-    <mergeCell ref="CD3:CE3"/>
-    <mergeCell ref="CF3:CG3"/>
-    <mergeCell ref="CH3:CI3"/>
-    <mergeCell ref="CJ3:CK3"/>
-    <mergeCell ref="CL3:CM3"/>
-    <mergeCell ref="CN3:CO3"/>
-    <mergeCell ref="CP3:CQ3"/>
-    <mergeCell ref="CR3:CS3"/>
-    <mergeCell ref="DN3:DO3"/>
-    <mergeCell ref="DP3:DQ3"/>
-    <mergeCell ref="DR3:DS3"/>
-    <mergeCell ref="DT3:DW3"/>
-    <mergeCell ref="CT4:CU4"/>
-    <mergeCell ref="DD3:DE3"/>
-    <mergeCell ref="DF3:DG3"/>
-    <mergeCell ref="DH3:DI3"/>
-    <mergeCell ref="DJ3:DK3"/>
-    <mergeCell ref="DL3:DM3"/>
-    <mergeCell ref="CT3:CU3"/>
-    <mergeCell ref="CV3:CW3"/>
-    <mergeCell ref="CX3:CY3"/>
-    <mergeCell ref="CZ3:DA3"/>
-    <mergeCell ref="DB3:DC3"/>
+    <mergeCell ref="AH2:AQ2"/>
+    <mergeCell ref="AR2:BA2"/>
+    <mergeCell ref="BB2:BK2"/>
+    <mergeCell ref="BL2:BU2"/>
+    <mergeCell ref="BV2:CE2"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="O1:W1"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:W2"/>
+    <mergeCell ref="X2:AG2"/>
   </mergeCells>
   <conditionalFormatting sqref="DP2:DP3 DJ2:DJ3 DF2:DF3 CZ2:CZ3 CV2:CV3 CP2:CP3 CL2:CL3 CF2:CF3 CB2:CB3 BV2:BV3 BR2:BR3 BL2:BL3 BH2:BH3 BB2:BB3 AX2:AX3 AR2:AR3 AN3 AH2:AH3 AD2:AD3 X2:X3 T3 N2:N3 J3 CV4:CW4 CZ4:DS4 H4:CS4">
     <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
